--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -1142,7 +1142,9 @@
       <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>187.1</v>
       </c>
@@ -1187,7 +1189,9 @@
       <c r="J18" t="n">
         <v>2</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>187.1</v>
       </c>
@@ -1232,7 +1236,9 @@
       <c r="J19" t="n">
         <v>2</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>187.1</v>
       </c>
@@ -1277,7 +1283,9 @@
       <c r="J20" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>187.1</v>
       </c>
@@ -1322,7 +1330,9 @@
       <c r="J21" t="n">
         <v>2</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>187.1</v>
       </c>
@@ -1369,7 +1379,9 @@
       <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>187.1</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>187.5</v>
@@ -1613,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L27" t="n">
         <v>187.5</v>
@@ -1662,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L28" t="n">
         <v>187.6</v>
@@ -1711,7 +1723,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L29" t="n">
         <v>187.7</v>
@@ -1760,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="K30" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L30" t="n">
         <v>187.8</v>
@@ -1809,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L31" t="n">
         <v>187.9</v>
@@ -1859,9 +1871,7 @@
       <c r="J32" t="n">
         <v>3</v>
       </c>
-      <c r="K32" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>188</v>
       </c>
@@ -1910,9 +1920,7 @@
       <c r="J33" t="n">
         <v>3</v>
       </c>
-      <c r="K33" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>188</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L34" t="n">
         <v>188.1</v>
@@ -2013,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L35" t="n">
         <v>188.2</v>
@@ -2064,7 +2072,7 @@
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L36" t="n">
         <v>188.3</v>
@@ -2115,7 +2123,7 @@
         <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L37" t="n">
         <v>188.4</v>
@@ -2420,9 +2428,7 @@
       <c r="J43" t="n">
         <v>4</v>
       </c>
-      <c r="K43" t="n">
-        <v>100</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>189</v>
       </c>
@@ -2471,9 +2477,7 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="n">
-        <v>100</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>189</v>
       </c>
@@ -2522,9 +2526,7 @@
       <c r="J45" t="n">
         <v>4</v>
       </c>
-      <c r="K45" t="n">
-        <v>100</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>189</v>
       </c>
@@ -2573,9 +2575,7 @@
       <c r="J46" t="n">
         <v>4</v>
       </c>
-      <c r="K46" t="n">
-        <v>100</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>189</v>
       </c>
@@ -2624,9 +2624,7 @@
       <c r="J47" t="n">
         <v>4</v>
       </c>
-      <c r="K47" t="n">
-        <v>100</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>189</v>
       </c>
@@ -2675,9 +2673,7 @@
       <c r="J48" t="n">
         <v>4</v>
       </c>
-      <c r="K48" t="n">
-        <v>100</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>189</v>
       </c>
@@ -2726,9 +2722,7 @@
       <c r="J49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="n">
-        <v>100</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>189</v>
       </c>
@@ -2777,9 +2771,7 @@
       <c r="J50" t="n">
         <v>4</v>
       </c>
-      <c r="K50" t="n">
-        <v>100</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>189</v>
       </c>
@@ -2828,9 +2820,7 @@
       <c r="J51" t="n">
         <v>4</v>
       </c>
-      <c r="K51" t="n">
-        <v>100</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>189</v>
       </c>
@@ -2879,9 +2869,7 @@
       <c r="J52" t="n">
         <v>4</v>
       </c>
-      <c r="K52" t="n">
-        <v>100</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>189</v>
       </c>
@@ -2930,9 +2918,7 @@
       <c r="J53" t="n">
         <v>4</v>
       </c>
-      <c r="K53" t="n">
-        <v>100</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>189</v>
       </c>
@@ -3833,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L71" t="n">
         <v>188.8</v>
@@ -3884,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>188.9</v>
@@ -3934,9 +3920,7 @@
       <c r="J73" t="n">
         <v>6</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>189</v>
       </c>
@@ -3985,9 +3969,7 @@
       <c r="J74" t="n">
         <v>6</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>189</v>
       </c>
@@ -4036,9 +4018,7 @@
       <c r="J75" t="n">
         <v>6</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>189</v>
       </c>
@@ -4087,9 +4067,7 @@
       <c r="J76" t="n">
         <v>6</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>189</v>
       </c>
@@ -4138,9 +4116,7 @@
       <c r="J77" t="n">
         <v>6</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>189</v>
       </c>
@@ -4189,9 +4165,7 @@
       <c r="J78" t="n">
         <v>6</v>
       </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>189</v>
       </c>
@@ -4240,9 +4214,7 @@
       <c r="J79" t="n">
         <v>6</v>
       </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>189</v>
       </c>
@@ -4291,9 +4263,7 @@
       <c r="J80" t="n">
         <v>6</v>
       </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>189</v>
       </c>
@@ -4342,9 +4312,7 @@
       <c r="J81" t="n">
         <v>6</v>
       </c>
-      <c r="K81" t="n">
-        <v>0</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>189</v>
       </c>
@@ -4393,9 +4361,7 @@
       <c r="J82" t="n">
         <v>6</v>
       </c>
-      <c r="K82" t="n">
-        <v>100</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>189</v>
       </c>
@@ -4444,9 +4410,7 @@
       <c r="J83" t="n">
         <v>6</v>
       </c>
-      <c r="K83" t="n">
-        <v>100</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>189</v>
       </c>
@@ -5150,9 +5114,7 @@
       <c r="J97" t="n">
         <v>7</v>
       </c>
-      <c r="K97" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>188</v>
       </c>
@@ -5201,9 +5163,7 @@
       <c r="J98" t="n">
         <v>7</v>
       </c>
-      <c r="K98" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>188</v>
       </c>
@@ -5252,9 +5212,7 @@
       <c r="J99" t="n">
         <v>7</v>
       </c>
-      <c r="K99" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>188</v>
       </c>
@@ -5303,9 +5261,7 @@
       <c r="J100" t="n">
         <v>7</v>
       </c>
-      <c r="K100" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>188</v>
       </c>
@@ -5354,9 +5310,7 @@
       <c r="J101" t="n">
         <v>7</v>
       </c>
-      <c r="K101" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>188</v>
       </c>
@@ -5405,9 +5359,7 @@
       <c r="J102" t="n">
         <v>7</v>
       </c>
-      <c r="K102" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>188</v>
       </c>
@@ -5456,9 +5408,7 @@
       <c r="J103" t="n">
         <v>7</v>
       </c>
-      <c r="K103" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>188</v>
       </c>
@@ -5507,9 +5457,7 @@
       <c r="J104" t="n">
         <v>7</v>
       </c>
-      <c r="K104" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>188</v>
       </c>
@@ -5558,9 +5506,7 @@
       <c r="J105" t="n">
         <v>7</v>
       </c>
-      <c r="K105" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>188</v>
       </c>
@@ -5609,9 +5555,7 @@
       <c r="J106" t="n">
         <v>7</v>
       </c>
-      <c r="K106" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>188</v>
       </c>
@@ -5660,9 +5604,7 @@
       <c r="J107" t="n">
         <v>7</v>
       </c>
-      <c r="K107" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>188</v>
       </c>
@@ -6709,9 +6651,7 @@
       <c r="J128" t="n">
         <v>8</v>
       </c>
-      <c r="K128" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>187</v>
       </c>
@@ -6760,9 +6700,7 @@
       <c r="J129" t="n">
         <v>8</v>
       </c>
-      <c r="K129" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>187</v>
       </c>
@@ -6811,9 +6749,7 @@
       <c r="J130" t="n">
         <v>8</v>
       </c>
-      <c r="K130" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>187</v>
       </c>
@@ -6862,9 +6798,7 @@
       <c r="J131" t="n">
         <v>8</v>
       </c>
-      <c r="K131" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>187</v>
       </c>
@@ -6914,7 +6848,7 @@
         <v>9</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>187.1</v>
@@ -6965,7 +6899,7 @@
         <v>11</v>
       </c>
       <c r="K133" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L133" t="n">
         <v>187</v>
@@ -7016,7 +6950,7 @@
         <v>11</v>
       </c>
       <c r="K134" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>186.9</v>
@@ -7067,7 +7001,7 @@
         <v>11</v>
       </c>
       <c r="K135" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>186.8</v>
@@ -7118,7 +7052,7 @@
         <v>12</v>
       </c>
       <c r="K136" t="n">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="L136" t="n">
         <v>186.6</v>
@@ -7169,7 +7103,7 @@
         <v>15</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>186.7</v>
@@ -7220,7 +7154,7 @@
         <v>17</v>
       </c>
       <c r="K138" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L138" t="n">
         <v>186.6</v>
@@ -7373,7 +7307,7 @@
         <v>21</v>
       </c>
       <c r="K141" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>186.8</v>
@@ -7424,7 +7358,7 @@
         <v>22</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L142" t="n">
         <v>186.9</v>
@@ -7475,7 +7409,7 @@
         <v>22</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L143" t="n">
         <v>187.2</v>
@@ -7526,7 +7460,7 @@
         <v>22</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571428</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L144" t="n">
         <v>187.5</v>
@@ -7577,7 +7511,7 @@
         <v>22</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L145" t="n">
         <v>187.8</v>
@@ -7679,7 +7613,7 @@
         <v>22</v>
       </c>
       <c r="K147" t="n">
-        <v>14.28571428571428</v>
+        <v>60</v>
       </c>
       <c r="L147" t="n">
         <v>188.3</v>
@@ -7730,7 +7664,7 @@
         <v>22</v>
       </c>
       <c r="K148" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>188.6</v>
@@ -7781,7 +7715,7 @@
         <v>23</v>
       </c>
       <c r="K149" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L149" t="n">
         <v>188.8</v>
@@ -7832,7 +7766,7 @@
         <v>23</v>
       </c>
       <c r="K150" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L150" t="n">
         <v>189.1</v>
@@ -7883,7 +7817,7 @@
         <v>24</v>
       </c>
       <c r="K151" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>189.4</v>
@@ -7934,7 +7868,7 @@
         <v>25</v>
       </c>
       <c r="K152" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>189.5</v>
@@ -7985,7 +7919,7 @@
         <v>25</v>
       </c>
       <c r="K153" t="n">
-        <v>28.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L153" t="n">
         <v>189.6</v>
@@ -8036,7 +7970,7 @@
         <v>26</v>
       </c>
       <c r="K154" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L154" t="n">
         <v>189.8</v>
@@ -8087,7 +8021,7 @@
         <v>26</v>
       </c>
       <c r="K155" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L155" t="n">
         <v>190</v>
@@ -8138,7 +8072,7 @@
         <v>26</v>
       </c>
       <c r="K156" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L156" t="n">
         <v>190.2</v>
@@ -8189,7 +8123,7 @@
         <v>26</v>
       </c>
       <c r="K157" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L157" t="n">
         <v>190.4</v>
@@ -8240,7 +8174,7 @@
         <v>27</v>
       </c>
       <c r="K158" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>190.5</v>
@@ -8291,7 +8225,7 @@
         <v>28</v>
       </c>
       <c r="K159" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L159" t="n">
         <v>190.4</v>
@@ -8342,7 +8276,7 @@
         <v>30</v>
       </c>
       <c r="K160" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>190.5</v>
@@ -8393,7 +8327,7 @@
         <v>32</v>
       </c>
       <c r="K161" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L161" t="n">
         <v>190.3</v>
@@ -8444,7 +8378,7 @@
         <v>33</v>
       </c>
       <c r="K162" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L162" t="n">
         <v>190.3</v>
@@ -8495,7 +8429,7 @@
         <v>34</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L163" t="n">
         <v>190.2</v>
@@ -8546,7 +8480,7 @@
         <v>34</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L164" t="n">
         <v>190</v>
@@ -8597,7 +8531,7 @@
         <v>34</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L165" t="n">
         <v>189.8</v>
@@ -8648,7 +8582,7 @@
         <v>35</v>
       </c>
       <c r="K166" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>189.5</v>
@@ -8699,7 +8633,7 @@
         <v>35</v>
       </c>
       <c r="K167" t="n">
-        <v>-7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L167" t="n">
         <v>189.2</v>
@@ -8750,7 +8684,7 @@
         <v>35</v>
       </c>
       <c r="K168" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L168" t="n">
         <v>189</v>
@@ -8801,7 +8735,7 @@
         <v>35</v>
       </c>
       <c r="K169" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L169" t="n">
         <v>188.9</v>
@@ -8852,7 +8786,7 @@
         <v>36</v>
       </c>
       <c r="K170" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L170" t="n">
         <v>188.5</v>
@@ -8903,7 +8837,7 @@
         <v>37</v>
       </c>
       <c r="K171" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L171" t="n">
         <v>188.4</v>
@@ -8954,7 +8888,7 @@
         <v>37</v>
       </c>
       <c r="K172" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>188.2</v>
@@ -9005,7 +8939,7 @@
         <v>37</v>
       </c>
       <c r="K173" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>188.1</v>
@@ -9056,7 +8990,7 @@
         <v>38</v>
       </c>
       <c r="K174" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L174" t="n">
         <v>187.9</v>
@@ -9158,7 +9092,7 @@
         <v>39</v>
       </c>
       <c r="K176" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>187.7</v>
@@ -9209,7 +9143,7 @@
         <v>39</v>
       </c>
       <c r="K177" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>187.7</v>
@@ -9260,7 +9194,7 @@
         <v>39</v>
       </c>
       <c r="K178" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>187.7</v>
@@ -9311,7 +9245,7 @@
         <v>39</v>
       </c>
       <c r="K179" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>187.7</v>
@@ -9362,7 +9296,7 @@
         <v>39</v>
       </c>
       <c r="K180" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>187.8</v>
@@ -9413,7 +9347,7 @@
         <v>42</v>
       </c>
       <c r="K181" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L181" t="n">
         <v>187.5</v>
@@ -9464,7 +9398,7 @@
         <v>43</v>
       </c>
       <c r="K182" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>187.3</v>
@@ -9515,7 +9449,7 @@
         <v>43</v>
       </c>
       <c r="K183" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L183" t="n">
         <v>187.1</v>
@@ -9566,7 +9500,7 @@
         <v>44</v>
       </c>
       <c r="K184" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>187.1</v>
@@ -9617,7 +9551,7 @@
         <v>45</v>
       </c>
       <c r="K185" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>187</v>
@@ -9668,7 +9602,7 @@
         <v>46</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L186" t="n">
         <v>186.9</v>
@@ -9719,7 +9653,7 @@
         <v>46</v>
       </c>
       <c r="K187" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>186.8</v>
@@ -9770,7 +9704,7 @@
         <v>48</v>
       </c>
       <c r="K188" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L188" t="n">
         <v>186.9</v>
@@ -9821,7 +9755,7 @@
         <v>48</v>
       </c>
       <c r="K189" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L189" t="n">
         <v>187</v>
@@ -9872,7 +9806,7 @@
         <v>48</v>
       </c>
       <c r="K190" t="n">
-        <v>16.66666666666666</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L190" t="n">
         <v>187.1</v>
@@ -9923,7 +9857,7 @@
         <v>51</v>
       </c>
       <c r="K191" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>187.2</v>
@@ -9974,7 +9908,7 @@
         <v>52</v>
       </c>
       <c r="K192" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L192" t="n">
         <v>187.3</v>
@@ -10025,7 +9959,7 @@
         <v>54</v>
       </c>
       <c r="K193" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L193" t="n">
         <v>187.6</v>
@@ -10076,7 +10010,7 @@
         <v>54</v>
       </c>
       <c r="K194" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>187.8</v>
@@ -10127,7 +10061,7 @@
         <v>54</v>
       </c>
       <c r="K195" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L195" t="n">
         <v>188.1</v>
@@ -10178,7 +10112,7 @@
         <v>55</v>
       </c>
       <c r="K196" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>188.4</v>
@@ -10229,7 +10163,7 @@
         <v>57</v>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L197" t="n">
         <v>188.5</v>
@@ -10280,7 +10214,7 @@
         <v>57</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L198" t="n">
         <v>188.4</v>
@@ -10331,7 +10265,7 @@
         <v>57</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L199" t="n">
         <v>188.3</v>
@@ -10382,7 +10316,7 @@
         <v>57</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>188.2</v>
@@ -10484,7 +10418,7 @@
         <v>57</v>
       </c>
       <c r="K202" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L202" t="n">
         <v>188.5</v>
@@ -10535,7 +10469,7 @@
         <v>58</v>
       </c>
       <c r="K203" t="n">
-        <v>6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L203" t="n">
         <v>188.3</v>
@@ -10586,7 +10520,7 @@
         <v>59</v>
       </c>
       <c r="K204" t="n">
-        <v>-6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L204" t="n">
         <v>188</v>
@@ -10637,7 +10571,7 @@
         <v>60</v>
       </c>
       <c r="K205" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L205" t="n">
         <v>187.8</v>
@@ -10688,7 +10622,7 @@
         <v>61</v>
       </c>
       <c r="K206" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L206" t="n">
         <v>187.6</v>
@@ -10739,7 +10673,7 @@
         <v>61</v>
       </c>
       <c r="K207" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L207" t="n">
         <v>187.6</v>
@@ -10790,7 +10724,7 @@
         <v>62</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L208" t="n">
         <v>187.7</v>
@@ -10841,7 +10775,7 @@
         <v>64</v>
       </c>
       <c r="K209" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L209" t="n">
         <v>188</v>
@@ -10892,7 +10826,7 @@
         <v>64</v>
       </c>
       <c r="K210" t="n">
-        <v>12.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L210" t="n">
         <v>188.3</v>
@@ -10943,7 +10877,7 @@
         <v>66</v>
       </c>
       <c r="K211" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L211" t="n">
         <v>188.4</v>
@@ -10994,7 +10928,7 @@
         <v>67</v>
       </c>
       <c r="K212" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L212" t="n">
         <v>188.6</v>
@@ -11045,7 +10979,7 @@
         <v>67</v>
       </c>
       <c r="K213" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L213" t="n">
         <v>188.9</v>
@@ -11096,7 +11030,7 @@
         <v>68</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L214" t="n">
         <v>189.2</v>
@@ -11147,7 +11081,7 @@
         <v>68</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L215" t="n">
         <v>189.4</v>
@@ -11198,7 +11132,7 @@
         <v>68</v>
       </c>
       <c r="K216" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L216" t="n">
         <v>189.5</v>
@@ -11249,7 +11183,7 @@
         <v>68</v>
       </c>
       <c r="K217" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>189.6</v>
@@ -11300,7 +11234,7 @@
         <v>69</v>
       </c>
       <c r="K218" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>189.7</v>
@@ -11351,7 +11285,7 @@
         <v>70</v>
       </c>
       <c r="K219" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L219" t="n">
         <v>189.5</v>
@@ -11402,7 +11336,7 @@
         <v>70</v>
       </c>
       <c r="K220" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>189.3</v>
@@ -11453,7 +11387,7 @@
         <v>70</v>
       </c>
       <c r="K221" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L221" t="n">
         <v>189.3</v>
@@ -11504,7 +11438,7 @@
         <v>70</v>
       </c>
       <c r="K222" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>189.2</v>
@@ -11555,7 +11489,7 @@
         <v>70</v>
       </c>
       <c r="K223" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L223" t="n">
         <v>189.1</v>
@@ -11606,7 +11540,7 @@
         <v>70</v>
       </c>
       <c r="K224" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>189.1</v>
@@ -11657,7 +11591,7 @@
         <v>70</v>
       </c>
       <c r="K225" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>189.1</v>
@@ -11708,7 +11642,7 @@
         <v>70</v>
       </c>
       <c r="K226" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L226" t="n">
         <v>189.1</v>
@@ -11759,7 +11693,7 @@
         <v>70</v>
       </c>
       <c r="K227" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L227" t="n">
         <v>189.1</v>
@@ -11809,9 +11743,7 @@
       <c r="J228" t="n">
         <v>70</v>
       </c>
-      <c r="K228" t="n">
-        <v>0</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>189</v>
       </c>
@@ -11861,7 +11793,7 @@
         <v>71</v>
       </c>
       <c r="K229" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L229" t="n">
         <v>188.9</v>
@@ -11912,7 +11844,7 @@
         <v>72</v>
       </c>
       <c r="K230" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>188.9</v>
@@ -12014,7 +11946,7 @@
         <v>72</v>
       </c>
       <c r="K232" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L232" t="n">
         <v>188.9</v>
@@ -12065,7 +11997,7 @@
         <v>73</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>189</v>
@@ -12116,7 +12048,7 @@
         <v>75</v>
       </c>
       <c r="K234" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L234" t="n">
         <v>189.3</v>
@@ -12167,7 +12099,7 @@
         <v>77</v>
       </c>
       <c r="K235" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L235" t="n">
         <v>189.4</v>
@@ -12218,7 +12150,7 @@
         <v>77</v>
       </c>
       <c r="K236" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L236" t="n">
         <v>189.5</v>
@@ -12269,7 +12201,7 @@
         <v>77</v>
       </c>
       <c r="K237" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L237" t="n">
         <v>189.6</v>
@@ -12320,7 +12252,7 @@
         <v>77</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L238" t="n">
         <v>189.7</v>
@@ -12371,7 +12303,7 @@
         <v>78</v>
       </c>
       <c r="K239" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>190</v>
@@ -12422,7 +12354,7 @@
         <v>79</v>
       </c>
       <c r="K240" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L240" t="n">
         <v>190.1</v>
@@ -12473,7 +12405,7 @@
         <v>79</v>
       </c>
       <c r="K241" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L241" t="n">
         <v>190.2</v>
@@ -12524,7 +12456,7 @@
         <v>79</v>
       </c>
       <c r="K242" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>190.3</v>
@@ -12575,7 +12507,7 @@
         <v>79</v>
       </c>
       <c r="K243" t="n">
-        <v>11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L243" t="n">
         <v>190.3</v>
@@ -12626,7 +12558,7 @@
         <v>79</v>
       </c>
       <c r="K244" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L244" t="n">
         <v>190.1</v>
@@ -12677,7 +12609,7 @@
         <v>80</v>
       </c>
       <c r="K245" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L245" t="n">
         <v>190.2</v>
@@ -12728,7 +12660,7 @@
         <v>80</v>
       </c>
       <c r="K246" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L246" t="n">
         <v>190.3</v>
@@ -12779,7 +12711,7 @@
         <v>81</v>
       </c>
       <c r="K247" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L247" t="n">
         <v>190.3</v>
@@ -12830,7 +12762,7 @@
         <v>81</v>
       </c>
       <c r="K248" t="n">
-        <v>9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L248" t="n">
         <v>190.3</v>
@@ -12881,7 +12813,7 @@
         <v>82</v>
       </c>
       <c r="K249" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L249" t="n">
         <v>190.3</v>
@@ -12932,7 +12864,7 @@
         <v>83</v>
       </c>
       <c r="K250" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>190.3</v>
@@ -12983,7 +12915,7 @@
         <v>83</v>
       </c>
       <c r="K251" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>190.3</v>
@@ -13034,7 +12966,7 @@
         <v>83</v>
       </c>
       <c r="K252" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>190.3</v>
@@ -13085,7 +13017,7 @@
         <v>84</v>
       </c>
       <c r="K253" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L253" t="n">
         <v>190.4</v>
@@ -13187,7 +13119,7 @@
         <v>86</v>
       </c>
       <c r="K255" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>190.2</v>
@@ -13238,7 +13170,7 @@
         <v>89</v>
       </c>
       <c r="K256" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L256" t="n">
         <v>190.3</v>
@@ -13289,7 +13221,7 @@
         <v>89</v>
       </c>
       <c r="K257" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L257" t="n">
         <v>190.5</v>
@@ -13340,7 +13272,7 @@
         <v>90</v>
       </c>
       <c r="K258" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>190.6</v>
@@ -13391,7 +13323,7 @@
         <v>91</v>
       </c>
       <c r="K259" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L259" t="n">
         <v>190.7</v>
@@ -13442,7 +13374,7 @@
         <v>91</v>
       </c>
       <c r="K260" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L260" t="n">
         <v>190.9</v>
@@ -13493,7 +13425,7 @@
         <v>91</v>
       </c>
       <c r="K261" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L261" t="n">
         <v>191.1</v>
@@ -13544,7 +13476,7 @@
         <v>91</v>
       </c>
       <c r="K262" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L262" t="n">
         <v>191.3</v>
@@ -13595,7 +13527,7 @@
         <v>91</v>
       </c>
       <c r="K263" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>191.4</v>
@@ -13646,7 +13578,7 @@
         <v>92</v>
       </c>
       <c r="K264" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L264" t="n">
         <v>191.5</v>
@@ -13697,7 +13629,7 @@
         <v>92</v>
       </c>
       <c r="K265" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L265" t="n">
         <v>191.7</v>
@@ -13748,7 +13680,7 @@
         <v>92</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L266" t="n">
         <v>191.6</v>
@@ -13799,7 +13731,7 @@
         <v>92</v>
       </c>
       <c r="K267" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L267" t="n">
         <v>191.5</v>
@@ -13850,7 +13782,7 @@
         <v>93</v>
       </c>
       <c r="K268" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L268" t="n">
         <v>191.4</v>
@@ -13901,7 +13833,7 @@
         <v>94</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>191.3</v>
@@ -13952,7 +13884,7 @@
         <v>95</v>
       </c>
       <c r="K270" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>191.3</v>
@@ -14003,7 +13935,7 @@
         <v>96</v>
       </c>
       <c r="K271" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L271" t="n">
         <v>191.4</v>
@@ -14054,7 +13986,7 @@
         <v>96</v>
       </c>
       <c r="K272" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L272" t="n">
         <v>191.5</v>
@@ -14105,7 +14037,7 @@
         <v>97</v>
       </c>
       <c r="K273" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L273" t="n">
         <v>191.7</v>
@@ -14258,7 +14190,7 @@
         <v>102</v>
       </c>
       <c r="K276" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L276" t="n">
         <v>192.3</v>
@@ -14309,7 +14241,7 @@
         <v>102</v>
       </c>
       <c r="K277" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>192.5</v>
@@ -14360,7 +14292,7 @@
         <v>103</v>
       </c>
       <c r="K278" t="n">
-        <v>7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L278" t="n">
         <v>192.7</v>
@@ -14462,7 +14394,7 @@
         <v>103</v>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L280" t="n">
         <v>192.8</v>
@@ -14513,7 +14445,7 @@
         <v>104</v>
       </c>
       <c r="K281" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L281" t="n">
         <v>192.8</v>
@@ -14564,7 +14496,7 @@
         <v>106</v>
       </c>
       <c r="K282" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L282" t="n">
         <v>192.6</v>
@@ -14615,7 +14547,7 @@
         <v>106</v>
       </c>
       <c r="K283" t="n">
-        <v>-6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L283" t="n">
         <v>192.3</v>
@@ -14666,7 +14598,7 @@
         <v>108</v>
       </c>
       <c r="K284" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L284" t="n">
         <v>192.4</v>
@@ -14717,7 +14649,7 @@
         <v>108</v>
       </c>
       <c r="K285" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>192.3</v>
@@ -14768,7 +14700,7 @@
         <v>108</v>
       </c>
       <c r="K286" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L286" t="n">
         <v>192.3</v>
@@ -14819,7 +14751,7 @@
         <v>108</v>
       </c>
       <c r="K287" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L287" t="n">
         <v>192.3</v>
@@ -14921,7 +14853,7 @@
         <v>109</v>
       </c>
       <c r="K289" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>192.6</v>
@@ -14972,7 +14904,7 @@
         <v>109</v>
       </c>
       <c r="K290" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L290" t="n">
         <v>192.8</v>
@@ -15023,7 +14955,7 @@
         <v>110</v>
       </c>
       <c r="K291" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L291" t="n">
         <v>193</v>
@@ -15074,7 +15006,7 @@
         <v>111</v>
       </c>
       <c r="K292" t="n">
-        <v>6.666666666666667</v>
+        <v>60</v>
       </c>
       <c r="L292" t="n">
         <v>193.3</v>
@@ -15125,7 +15057,7 @@
         <v>111</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L293" t="n">
         <v>193.6</v>
@@ -15176,7 +15108,7 @@
         <v>112</v>
       </c>
       <c r="K294" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L294" t="n">
         <v>193.8</v>
@@ -15227,7 +15159,7 @@
         <v>112</v>
       </c>
       <c r="K295" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L295" t="n">
         <v>194</v>
@@ -15278,7 +15210,7 @@
         <v>113</v>
       </c>
       <c r="K296" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L296" t="n">
         <v>194.1</v>
@@ -15329,7 +15261,7 @@
         <v>113</v>
       </c>
       <c r="K297" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L297" t="n">
         <v>194.2</v>
@@ -15380,7 +15312,7 @@
         <v>113</v>
       </c>
       <c r="K298" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>194.3</v>
@@ -15431,7 +15363,7 @@
         <v>114</v>
       </c>
       <c r="K299" t="n">
-        <v>9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L299" t="n">
         <v>194.2</v>
@@ -15482,7 +15414,7 @@
         <v>114</v>
       </c>
       <c r="K300" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L300" t="n">
         <v>194.1</v>
@@ -15533,7 +15465,7 @@
         <v>114</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>193.9</v>
@@ -15584,7 +15516,7 @@
         <v>114</v>
       </c>
       <c r="K302" t="n">
-        <v>25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L302" t="n">
         <v>193.8</v>
@@ -15635,7 +15567,7 @@
         <v>115</v>
       </c>
       <c r="K303" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L303" t="n">
         <v>193.8</v>
@@ -15686,7 +15618,7 @@
         <v>117</v>
       </c>
       <c r="K304" t="n">
-        <v>-11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L304" t="n">
         <v>193.5</v>
@@ -15737,7 +15669,7 @@
         <v>119</v>
       </c>
       <c r="K305" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>193.4</v>

--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -4756,13 +4756,17 @@
         <v>188.25</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>187</v>
+      </c>
+      <c r="K125" t="n">
+        <v>187</v>
+      </c>
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
@@ -4791,14 +4795,22 @@
         <v>188.2166666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>187</v>
+      </c>
+      <c r="K126" t="n">
+        <v>187</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,8 +4844,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>187</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4896,17 +4914,13 @@
         <v>188.1166666666667</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>187</v>
-      </c>
-      <c r="K129" t="n">
-        <v>187</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
@@ -4935,22 +4949,14 @@
         <v>188.0833333333333</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>187</v>
-      </c>
-      <c r="K130" t="n">
-        <v>187</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4978,22 +4984,14 @@
         <v>188.05</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>187</v>
-      </c>
-      <c r="K131" t="n">
-        <v>187</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5029,9 +5027,7 @@
       <c r="J132" t="n">
         <v>187</v>
       </c>
-      <c r="K132" t="n">
-        <v>187</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5070,11 +5066,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>186</v>
-      </c>
-      <c r="K133" t="n">
-        <v>187</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5115,9 +5109,7 @@
       <c r="J134" t="n">
         <v>186</v>
       </c>
-      <c r="K134" t="n">
-        <v>187</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5158,9 +5150,7 @@
       <c r="J135" t="n">
         <v>186</v>
       </c>
-      <c r="K135" t="n">
-        <v>187</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,17 +5183,13 @@
         <v>187.8166666666667</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>187</v>
-      </c>
-      <c r="K136" t="n">
-        <v>187</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,17 +5222,13 @@
         <v>187.8</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>188</v>
-      </c>
-      <c r="K137" t="n">
-        <v>187</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,17 +5261,13 @@
         <v>187.75</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>188</v>
-      </c>
-      <c r="K138" t="n">
-        <v>187</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5322,17 +5300,13 @@
         <v>187.7333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>188</v>
-      </c>
-      <c r="K139" t="n">
-        <v>187</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5365,17 +5339,13 @@
         <v>187.7</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>186</v>
-      </c>
-      <c r="K140" t="n">
-        <v>187</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5408,17 +5378,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>188</v>
-      </c>
-      <c r="K141" t="n">
-        <v>187</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5451,17 +5417,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>188</v>
-      </c>
-      <c r="K142" t="n">
-        <v>187</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,17 +5456,13 @@
         <v>187.6833333333333</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>188</v>
-      </c>
-      <c r="K143" t="n">
-        <v>187</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5543,9 +5501,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>187</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5584,9 +5540,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>187</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5625,9 +5579,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>187</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5666,9 +5618,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>187</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,9 +5657,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>187</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5748,9 +5696,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>187</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5789,9 +5735,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>187</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5830,9 +5774,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>187</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,9 +5813,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>187</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5909,20 +5849,16 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>187</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5953,14 +5889,8 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>187</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5994,14 +5924,8 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>187</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6032,17 +5956,11 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>187</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6076,16 +5994,10 @@
         <v>1</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>187</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>1.016390374331551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -6114,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
@@ -6149,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
@@ -6184,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
@@ -6254,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6324,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -7021,17 +6933,13 @@
         <v>188.2</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>187</v>
-      </c>
-      <c r="K184" t="n">
-        <v>187</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
@@ -7060,194 +6968,166 @@
         <v>188.1833333333333</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
         <v>186</v>
       </c>
-      <c r="K185" t="n">
-        <v>187</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="C186" t="n">
+        <v>187</v>
+      </c>
+      <c r="D186" t="n">
+        <v>187</v>
+      </c>
+      <c r="E186" t="n">
+        <v>186</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1669</v>
+      </c>
+      <c r="G186" t="n">
+        <v>188.1833333333333</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>187</v>
+      </c>
+      <c r="C187" t="n">
+        <v>187</v>
+      </c>
+      <c r="D187" t="n">
+        <v>187</v>
+      </c>
+      <c r="E187" t="n">
+        <v>187</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8995.6919</v>
+      </c>
+      <c r="G187" t="n">
+        <v>188.1833333333333</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>189</v>
+      </c>
+      <c r="C188" t="n">
+        <v>189</v>
+      </c>
+      <c r="D188" t="n">
+        <v>189</v>
+      </c>
+      <c r="E188" t="n">
+        <v>189</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G188" t="n">
+        <v>188.2166666666667</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>187</v>
+      </c>
+      <c r="K188" t="n">
+        <v>187</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>189</v>
+      </c>
+      <c r="C189" t="n">
+        <v>189</v>
+      </c>
+      <c r="D189" t="n">
+        <v>189</v>
+      </c>
+      <c r="E189" t="n">
+        <v>189</v>
+      </c>
+      <c r="F189" t="n">
+        <v>6510.4338</v>
+      </c>
+      <c r="G189" t="n">
+        <v>188.25</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>189</v>
+      </c>
+      <c r="K189" t="n">
+        <v>187</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>186</v>
-      </c>
-      <c r="C186" t="n">
-        <v>187</v>
-      </c>
-      <c r="D186" t="n">
-        <v>187</v>
-      </c>
-      <c r="E186" t="n">
-        <v>186</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1669</v>
-      </c>
-      <c r="G186" t="n">
-        <v>188.1833333333333</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>186</v>
-      </c>
-      <c r="K186" t="n">
-        <v>187</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>187</v>
-      </c>
-      <c r="C187" t="n">
-        <v>187</v>
-      </c>
-      <c r="D187" t="n">
-        <v>187</v>
-      </c>
-      <c r="E187" t="n">
-        <v>187</v>
-      </c>
-      <c r="F187" t="n">
-        <v>8995.6919</v>
-      </c>
-      <c r="G187" t="n">
-        <v>188.1833333333333</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>187</v>
-      </c>
-      <c r="K187" t="n">
-        <v>187</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>189</v>
-      </c>
-      <c r="C188" t="n">
-        <v>189</v>
-      </c>
-      <c r="D188" t="n">
-        <v>189</v>
-      </c>
-      <c r="E188" t="n">
-        <v>189</v>
-      </c>
-      <c r="F188" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G188" t="n">
-        <v>188.2166666666667</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>189</v>
-      </c>
-      <c r="K188" t="n">
-        <v>187</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>189</v>
-      </c>
-      <c r="C189" t="n">
-        <v>189</v>
-      </c>
-      <c r="D189" t="n">
-        <v>189</v>
-      </c>
-      <c r="E189" t="n">
-        <v>189</v>
-      </c>
-      <c r="F189" t="n">
-        <v>6510.4338</v>
-      </c>
-      <c r="G189" t="n">
-        <v>188.25</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>189</v>
-      </c>
-      <c r="K189" t="n">
-        <v>187</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7166,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M190" t="n">
@@ -7322,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>187</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7363,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>187</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7404,14 +7272,8 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>187</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +7307,8 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>187</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7486,14 +7342,8 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>187</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7527,14 +7377,8 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>187</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7412,8 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>187</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7609,14 +7447,8 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>187</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7650,14 +7482,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>187</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7691,14 +7517,8 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>187</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7732,14 +7552,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>187</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7773,14 +7587,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>187</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7814,14 +7622,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>187</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7855,14 +7657,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>187</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7896,14 +7692,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>187</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +7727,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>187</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7978,14 +7762,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>187</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8019,14 +7797,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>187</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8060,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>187</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8101,14 +7867,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>187</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8142,14 +7902,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>187</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8180,17 +7934,11 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>187</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8224,14 +7972,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>187</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8265,14 +8007,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>187</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8306,14 +8042,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>187</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8347,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>187</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8388,14 +8112,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>187</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8429,14 +8147,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>187</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8470,14 +8182,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>187</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8511,14 +8217,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>187</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8552,14 +8252,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>187</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8593,14 +8287,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>187</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8634,14 +8322,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>187</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8675,14 +8357,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>187</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8716,14 +8392,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>187</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8757,14 +8427,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>187</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8798,14 +8462,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>187</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8839,14 +8497,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>187</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8880,14 +8532,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>187</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8921,14 +8567,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>187</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8962,14 +8602,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>187</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9003,14 +8637,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>187</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9044,14 +8672,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>187</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9085,14 +8707,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>187</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9126,14 +8742,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>187</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9167,14 +8777,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>187</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9208,14 +8812,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>187</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9249,14 +8847,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>187</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9290,14 +8882,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>187</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9331,14 +8917,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>187</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9372,14 +8952,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>187</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9413,14 +8987,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>187</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9454,14 +9022,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>187</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9495,14 +9057,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>187</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9536,14 +9092,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>187</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9577,14 +9127,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>187</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9618,14 +9162,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>187</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9659,14 +9197,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>187</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9700,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>187</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9741,14 +9267,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>187</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9782,14 +9302,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>187</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9823,14 +9337,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>187</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9864,14 +9372,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>187</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9905,14 +9407,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>187</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9946,14 +9442,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>187</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9987,14 +9477,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>187</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10028,14 +9512,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>187</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10069,14 +9547,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>187</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10110,16 +9582,10 @@
         <v>1</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>187</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
-        <v>1.021737967914439</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -10148,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -10638,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M284"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>187</v>
       </c>
       <c r="F2" t="n">
-        <v>2460492</v>
+        <v>2480496</v>
       </c>
       <c r="G2" t="n">
-        <v>187</v>
+        <v>186.9833333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>187</v>
       </c>
       <c r="F3" t="n">
-        <v>1546248</v>
+        <v>2460492</v>
       </c>
       <c r="G3" t="n">
-        <v>187.0166666666667</v>
+        <v>187</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>187</v>
       </c>
       <c r="F4" t="n">
-        <v>2286000</v>
+        <v>1546248</v>
       </c>
       <c r="G4" t="n">
-        <v>187.0333333333333</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>187</v>
       </c>
       <c r="F5" t="n">
-        <v>2277000</v>
+        <v>2286000</v>
       </c>
       <c r="G5" t="n">
-        <v>187.05</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>187</v>
       </c>
       <c r="F6" t="n">
-        <v>2286000</v>
+        <v>2277000</v>
       </c>
       <c r="G6" t="n">
         <v>187.05</v>
@@ -623,7 +623,7 @@
         <v>2286000</v>
       </c>
       <c r="G7" t="n">
-        <v>187.0333333333333</v>
+        <v>187.05</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>187</v>
       </c>
       <c r="F8" t="n">
-        <v>2324151.4536</v>
+        <v>2286000</v>
       </c>
       <c r="G8" t="n">
-        <v>187.0166666666667</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>187</v>
       </c>
       <c r="F9" t="n">
-        <v>2274848.5464</v>
+        <v>2324151.4536</v>
       </c>
       <c r="G9" t="n">
-        <v>187</v>
+        <v>187.0166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>187</v>
       </c>
       <c r="F10" t="n">
-        <v>2268000</v>
+        <v>2274848.5464</v>
       </c>
       <c r="G10" t="n">
-        <v>186.9833333333333</v>
+        <v>187</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>187</v>
       </c>
       <c r="F11" t="n">
-        <v>2295000</v>
+        <v>2268000</v>
       </c>
       <c r="G11" t="n">
         <v>186.9833333333333</v>
@@ -795,7 +795,7 @@
         <v>187</v>
       </c>
       <c r="F12" t="n">
-        <v>2295294.9999</v>
+        <v>2295000</v>
       </c>
       <c r="G12" t="n">
         <v>186.9833333333333</v>
@@ -830,7 +830,7 @@
         <v>187</v>
       </c>
       <c r="F13" t="n">
-        <v>2376000</v>
+        <v>2295294.9999</v>
       </c>
       <c r="G13" t="n">
         <v>186.9833333333333</v>
@@ -865,7 +865,7 @@
         <v>187</v>
       </c>
       <c r="F14" t="n">
-        <v>2313000</v>
+        <v>2376000</v>
       </c>
       <c r="G14" t="n">
         <v>186.9833333333333</v>
@@ -935,7 +935,7 @@
         <v>187</v>
       </c>
       <c r="F16" t="n">
-        <v>2295000</v>
+        <v>2313000</v>
       </c>
       <c r="G16" t="n">
         <v>186.9833333333333</v>
@@ -961,19 +961,19 @@
         <v>187</v>
       </c>
       <c r="C17" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D17" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17" t="n">
         <v>187</v>
       </c>
       <c r="F17" t="n">
-        <v>1043858.2994</v>
+        <v>2295000</v>
       </c>
       <c r="G17" t="n">
-        <v>187</v>
+        <v>186.9833333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18" t="n">
         <v>188</v>
@@ -1005,7 +1005,7 @@
         <v>187</v>
       </c>
       <c r="F18" t="n">
-        <v>366800</v>
+        <v>1043858.2994</v>
       </c>
       <c r="G18" t="n">
         <v>187</v>
@@ -1028,19 +1028,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="n">
         <v>187</v>
       </c>
       <c r="D19" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E19" t="n">
         <v>187</v>
       </c>
       <c r="F19" t="n">
-        <v>2580000</v>
+        <v>366800</v>
       </c>
       <c r="G19" t="n">
         <v>187</v>
@@ -1075,7 +1075,7 @@
         <v>187</v>
       </c>
       <c r="F20" t="n">
-        <v>2590000</v>
+        <v>2580000</v>
       </c>
       <c r="G20" t="n">
         <v>187</v>
@@ -1110,7 +1110,7 @@
         <v>187</v>
       </c>
       <c r="F21" t="n">
-        <v>2610000</v>
+        <v>2590000</v>
       </c>
       <c r="G21" t="n">
         <v>187</v>
@@ -1145,7 +1145,7 @@
         <v>187</v>
       </c>
       <c r="F22" t="n">
-        <v>1970000</v>
+        <v>2610000</v>
       </c>
       <c r="G22" t="n">
         <v>187</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E23" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" t="n">
-        <v>398016.9946</v>
+        <v>1970000</v>
       </c>
       <c r="G23" t="n">
-        <v>187.0333333333333</v>
+        <v>187</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>188</v>
       </c>
       <c r="F24" t="n">
-        <v>689118</v>
+        <v>398016.9946</v>
       </c>
       <c r="G24" t="n">
-        <v>187.05</v>
+        <v>187.0333333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>188</v>
       </c>
       <c r="F25" t="n">
-        <v>691789</v>
+        <v>689118</v>
       </c>
       <c r="G25" t="n">
-        <v>187.0666666666667</v>
+        <v>187.05</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>188</v>
       </c>
       <c r="F26" t="n">
-        <v>491464</v>
+        <v>691789</v>
       </c>
       <c r="G26" t="n">
-        <v>187.0833333333333</v>
+        <v>187.0666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>188</v>
       </c>
       <c r="F27" t="n">
-        <v>1379025.1023</v>
+        <v>491464</v>
       </c>
       <c r="G27" t="n">
-        <v>187.1</v>
+        <v>187.0833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>188</v>
       </c>
       <c r="F28" t="n">
-        <v>1431490</v>
+        <v>1379025.1023</v>
       </c>
       <c r="G28" t="n">
-        <v>187.1166666666667</v>
+        <v>187.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>188</v>
       </c>
       <c r="F29" t="n">
-        <v>1459340</v>
+        <v>1431490</v>
       </c>
       <c r="G29" t="n">
-        <v>187.1333333333333</v>
+        <v>187.1166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>188</v>
       </c>
       <c r="F30" t="n">
-        <v>756649.8977</v>
+        <v>1459340</v>
       </c>
       <c r="G30" t="n">
-        <v>187.15</v>
+        <v>187.1333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>188</v>
       </c>
       <c r="F31" t="n">
-        <v>1717965.21</v>
+        <v>756649.8977</v>
       </c>
       <c r="G31" t="n">
-        <v>187.1666666666667</v>
+        <v>187.15</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>188</v>
       </c>
       <c r="F32" t="n">
-        <v>2313000</v>
+        <v>1717965.21</v>
       </c>
       <c r="G32" t="n">
-        <v>187.1833333333333</v>
+        <v>187.1666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>188</v>
       </c>
       <c r="F33" t="n">
-        <v>235709.137</v>
+        <v>2313000</v>
       </c>
       <c r="G33" t="n">
-        <v>187.2</v>
+        <v>187.1833333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>188</v>
       </c>
       <c r="C34" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E34" t="n">
         <v>188</v>
       </c>
       <c r="F34" t="n">
-        <v>319883.6548</v>
+        <v>235709.137</v>
       </c>
       <c r="G34" t="n">
-        <v>187.2333333333333</v>
+        <v>187.2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C35" t="n">
         <v>189</v>
@@ -1597,13 +1597,13 @@
         <v>189</v>
       </c>
       <c r="E35" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F35" t="n">
-        <v>774000</v>
+        <v>319883.6548</v>
       </c>
       <c r="G35" t="n">
-        <v>187.2666666666667</v>
+        <v>187.2333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>189</v>
       </c>
       <c r="F36" t="n">
-        <v>786000</v>
+        <v>774000</v>
       </c>
       <c r="G36" t="n">
-        <v>187.3</v>
+        <v>187.2666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>189</v>
       </c>
       <c r="F37" t="n">
-        <v>636000</v>
+        <v>786000</v>
       </c>
       <c r="G37" t="n">
-        <v>187.3333333333333</v>
+        <v>187.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1705,10 @@
         <v>189</v>
       </c>
       <c r="F38" t="n">
-        <v>1896860</v>
+        <v>636000</v>
       </c>
       <c r="G38" t="n">
-        <v>187.3666666666667</v>
+        <v>187.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>189</v>
       </c>
       <c r="F39" t="n">
-        <v>2080315.1752</v>
+        <v>1896860</v>
       </c>
       <c r="G39" t="n">
-        <v>187.4</v>
+        <v>187.3666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>189</v>
       </c>
       <c r="F40" t="n">
-        <v>1124037</v>
+        <v>2080315.1752</v>
       </c>
       <c r="G40" t="n">
-        <v>187.4333333333333</v>
+        <v>187.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C41" t="n">
         <v>189</v>
       </c>
       <c r="D41" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E41" t="n">
         <v>189</v>
       </c>
       <c r="F41" t="n">
-        <v>77248</v>
+        <v>1124037</v>
       </c>
       <c r="G41" t="n">
-        <v>187.4666666666667</v>
+        <v>187.4333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" t="n">
         <v>189</v>
       </c>
       <c r="D42" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E42" t="n">
         <v>189</v>
       </c>
       <c r="F42" t="n">
-        <v>2498500</v>
+        <v>77248</v>
       </c>
       <c r="G42" t="n">
-        <v>187.5</v>
+        <v>187.4666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>189</v>
       </c>
       <c r="F43" t="n">
-        <v>2508000</v>
+        <v>2498500</v>
       </c>
       <c r="G43" t="n">
-        <v>187.5333333333333</v>
+        <v>187.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2508000</v>
       </c>
       <c r="G44" t="n">
-        <v>187.5666666666667</v>
+        <v>187.5333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>189</v>
       </c>
       <c r="F45" t="n">
-        <v>2479500</v>
+        <v>2508000</v>
       </c>
       <c r="G45" t="n">
-        <v>187.6</v>
+        <v>187.5666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>189</v>
       </c>
       <c r="F46" t="n">
-        <v>2517500</v>
+        <v>2479500</v>
       </c>
       <c r="G46" t="n">
-        <v>187.6333333333333</v>
+        <v>187.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>189</v>
       </c>
       <c r="F47" t="n">
-        <v>2508000</v>
+        <v>2517500</v>
       </c>
       <c r="G47" t="n">
-        <v>187.6666666666667</v>
+        <v>187.6333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>189</v>
       </c>
       <c r="F48" t="n">
-        <v>2498500</v>
+        <v>2508000</v>
       </c>
       <c r="G48" t="n">
-        <v>187.7</v>
+        <v>187.6666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>189</v>
       </c>
       <c r="F49" t="n">
-        <v>2489836.9835</v>
+        <v>2498500</v>
       </c>
       <c r="G49" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>189</v>
       </c>
       <c r="F50" t="n">
-        <v>2508000</v>
+        <v>2489836.9835</v>
       </c>
       <c r="G50" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2160,10 @@
         <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>2509025.5076</v>
+        <v>2508000</v>
       </c>
       <c r="G51" t="n">
-        <v>187.8</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2195,10 +2195,10 @@
         <v>189</v>
       </c>
       <c r="F52" t="n">
-        <v>2498500</v>
+        <v>2509025.5076</v>
       </c>
       <c r="G52" t="n">
-        <v>187.8333333333333</v>
+        <v>187.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>189</v>
       </c>
       <c r="F53" t="n">
-        <v>2527000</v>
+        <v>2498500</v>
       </c>
       <c r="G53" t="n">
-        <v>187.8666666666667</v>
+        <v>187.8333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2265,10 +2265,10 @@
         <v>189</v>
       </c>
       <c r="F54" t="n">
-        <v>598609.5101</v>
+        <v>2527000</v>
       </c>
       <c r="G54" t="n">
-        <v>187.9</v>
+        <v>187.8666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2300,10 +2300,10 @@
         <v>189</v>
       </c>
       <c r="F55" t="n">
-        <v>2547837.0422</v>
+        <v>598609.5101</v>
       </c>
       <c r="G55" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>189</v>
       </c>
       <c r="F56" t="n">
-        <v>2517500</v>
+        <v>2547837.0422</v>
       </c>
       <c r="G56" t="n">
-        <v>187.9666666666667</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2370,10 +2370,10 @@
         <v>189</v>
       </c>
       <c r="F57" t="n">
-        <v>2558204</v>
+        <v>2517500</v>
       </c>
       <c r="G57" t="n">
-        <v>188</v>
+        <v>187.9666666666667</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>189</v>
       </c>
       <c r="F58" t="n">
-        <v>2524296</v>
+        <v>2558204</v>
       </c>
       <c r="G58" t="n">
-        <v>188.0333333333333</v>
+        <v>188</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>189</v>
       </c>
       <c r="F59" t="n">
-        <v>2536500</v>
+        <v>2524296</v>
       </c>
       <c r="G59" t="n">
-        <v>188.0666666666667</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>189</v>
       </c>
       <c r="F60" t="n">
-        <v>2530614.4335</v>
+        <v>2536500</v>
       </c>
       <c r="G60" t="n">
-        <v>188.1</v>
+        <v>188.0666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>189</v>
       </c>
       <c r="F61" t="n">
-        <v>1710000</v>
+        <v>2530614.4335</v>
       </c>
       <c r="G61" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E62" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F62" t="n">
-        <v>1823163</v>
+        <v>1710000</v>
       </c>
       <c r="G62" t="n">
-        <v>188.15</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>188</v>
       </c>
       <c r="F63" t="n">
-        <v>1012323</v>
+        <v>1823163</v>
       </c>
       <c r="G63" t="n">
-        <v>188.1666666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E64" t="n">
         <v>188</v>
       </c>
       <c r="F64" t="n">
-        <v>869721.4577</v>
+        <v>1012323</v>
       </c>
       <c r="G64" t="n">
-        <v>188.2</v>
+        <v>188.1666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2647,13 +2647,13 @@
         <v>189</v>
       </c>
       <c r="E65" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F65" t="n">
-        <v>978622</v>
+        <v>869721.4577</v>
       </c>
       <c r="G65" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>189</v>
       </c>
       <c r="F66" t="n">
-        <v>971346</v>
+        <v>978622</v>
       </c>
       <c r="G66" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>189</v>
       </c>
       <c r="F67" t="n">
-        <v>978622</v>
+        <v>971346</v>
       </c>
       <c r="G67" t="n">
-        <v>188.3</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>189</v>
       </c>
       <c r="F68" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G68" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>189</v>
       </c>
       <c r="F69" t="n">
-        <v>978622</v>
+        <v>956794</v>
       </c>
       <c r="G69" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>189</v>
       </c>
       <c r="F70" t="n">
-        <v>967708</v>
+        <v>978622</v>
       </c>
       <c r="G70" t="n">
-        <v>188.4</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2860,10 @@
         <v>189</v>
       </c>
       <c r="F71" t="n">
-        <v>974984</v>
+        <v>967708</v>
       </c>
       <c r="G71" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2895,10 @@
         <v>189</v>
       </c>
       <c r="F72" t="n">
-        <v>978622</v>
+        <v>974984</v>
       </c>
       <c r="G72" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>189</v>
       </c>
       <c r="F73" t="n">
-        <v>956794</v>
+        <v>978622</v>
       </c>
       <c r="G73" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>189</v>
       </c>
       <c r="F74" t="n">
-        <v>829464</v>
+        <v>956794</v>
       </c>
       <c r="G74" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>189</v>
       </c>
       <c r="F75" t="n">
-        <v>1222499.9999</v>
+        <v>829464</v>
       </c>
       <c r="G75" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>189</v>
       </c>
       <c r="F76" t="n">
-        <v>1980000</v>
+        <v>1222499.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>188.6</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>189</v>
       </c>
       <c r="F77" t="n">
-        <v>1980000.0001</v>
+        <v>1980000</v>
       </c>
       <c r="G77" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         <v>189</v>
       </c>
       <c r="F78" t="n">
-        <v>2010000</v>
+        <v>1980000.0001</v>
       </c>
       <c r="G78" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>189</v>
       </c>
       <c r="F79" t="n">
-        <v>2032499.9999</v>
+        <v>2010000</v>
       </c>
       <c r="G79" t="n">
-        <v>188.6833333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>189</v>
       </c>
       <c r="F80" t="n">
-        <v>1987500.0001</v>
+        <v>2032499.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>188.7166666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>189</v>
       </c>
       <c r="F81" t="n">
-        <v>2002499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G81" t="n">
-        <v>188.75</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>189</v>
       </c>
       <c r="F82" t="n">
-        <v>2010000</v>
+        <v>2002499.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>188.7833333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>189</v>
       </c>
       <c r="F83" t="n">
-        <v>1987500.0001</v>
+        <v>2010000</v>
       </c>
       <c r="G83" t="n">
-        <v>188.8</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         <v>189</v>
       </c>
       <c r="F84" t="n">
-        <v>2017499.9999</v>
+        <v>1987500.0001</v>
       </c>
       <c r="G84" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>189</v>
       </c>
       <c r="F85" t="n">
-        <v>2040000.0001</v>
+        <v>2017499.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>188.8333333333333</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>189</v>
       </c>
       <c r="F86" t="n">
-        <v>2047499.9999</v>
+        <v>2040000.0001</v>
       </c>
       <c r="G86" t="n">
-        <v>188.85</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>189</v>
       </c>
       <c r="F87" t="n">
-        <v>1687500</v>
+        <v>2047499.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>188.8666666666667</v>
+        <v>188.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,16 +3446,16 @@
         <v>189</v>
       </c>
       <c r="C88" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D88" t="n">
         <v>189</v>
       </c>
       <c r="E88" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F88" t="n">
-        <v>652676.5519</v>
+        <v>1687500</v>
       </c>
       <c r="G88" t="n">
         <v>188.8666666666667</v>
@@ -3478,19 +3478,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C89" t="n">
         <v>188</v>
       </c>
       <c r="D89" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E89" t="n">
         <v>188</v>
       </c>
       <c r="F89" t="n">
-        <v>237.7608</v>
+        <v>652676.5519</v>
       </c>
       <c r="G89" t="n">
         <v>188.8666666666667</v>
@@ -3525,7 +3525,7 @@
         <v>188</v>
       </c>
       <c r="F90" t="n">
-        <v>837000</v>
+        <v>237.7608</v>
       </c>
       <c r="G90" t="n">
         <v>188.8666666666667</v>
@@ -3560,7 +3560,7 @@
         <v>188</v>
       </c>
       <c r="F91" t="n">
-        <v>2412000</v>
+        <v>837000</v>
       </c>
       <c r="G91" t="n">
         <v>188.8666666666667</v>
@@ -3595,7 +3595,7 @@
         <v>188</v>
       </c>
       <c r="F92" t="n">
-        <v>2421000</v>
+        <v>2412000</v>
       </c>
       <c r="G92" t="n">
         <v>188.8666666666667</v>
@@ -3630,7 +3630,7 @@
         <v>188</v>
       </c>
       <c r="F93" t="n">
-        <v>2403000</v>
+        <v>2421000</v>
       </c>
       <c r="G93" t="n">
         <v>188.8666666666667</v>
@@ -3665,10 +3665,10 @@
         <v>188</v>
       </c>
       <c r="F94" t="n">
-        <v>2439000</v>
+        <v>2403000</v>
       </c>
       <c r="G94" t="n">
-        <v>188.85</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3700,10 @@
         <v>188</v>
       </c>
       <c r="F95" t="n">
-        <v>2421336.6106</v>
+        <v>2439000</v>
       </c>
       <c r="G95" t="n">
-        <v>188.8333333333333</v>
+        <v>188.85</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>188</v>
       </c>
       <c r="F96" t="n">
-        <v>2385000</v>
+        <v>2421336.6106</v>
       </c>
       <c r="G96" t="n">
-        <v>188.8166666666667</v>
+        <v>188.8333333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>188</v>
       </c>
       <c r="F97" t="n">
-        <v>2412169.5744</v>
+        <v>2385000</v>
       </c>
       <c r="G97" t="n">
-        <v>188.8</v>
+        <v>188.8166666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>188</v>
       </c>
       <c r="F98" t="n">
-        <v>2429493.815</v>
+        <v>2412169.5744</v>
       </c>
       <c r="G98" t="n">
-        <v>188.7833333333333</v>
+        <v>188.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>188</v>
       </c>
       <c r="F99" t="n">
-        <v>2439000</v>
+        <v>2429493.815</v>
       </c>
       <c r="G99" t="n">
-        <v>188.7666666666667</v>
+        <v>188.7833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>188</v>
       </c>
       <c r="F100" t="n">
-        <v>2369165.1244</v>
+        <v>2439000</v>
       </c>
       <c r="G100" t="n">
-        <v>188.75</v>
+        <v>188.7666666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>188</v>
       </c>
       <c r="F101" t="n">
-        <v>1683000</v>
+        <v>2369165.1244</v>
       </c>
       <c r="G101" t="n">
-        <v>188.7333333333333</v>
+        <v>188.75</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>188</v>
       </c>
       <c r="F102" t="n">
-        <v>511499.6454</v>
+        <v>1683000</v>
       </c>
       <c r="G102" t="n">
-        <v>188.7166666666667</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,19 +3980,23 @@
         <v>188</v>
       </c>
       <c r="F103" t="n">
-        <v>2587508</v>
+        <v>511499.6454</v>
       </c>
       <c r="G103" t="n">
-        <v>188.7</v>
+        <v>188.7166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>188</v>
+      </c>
+      <c r="K103" t="n">
+        <v>188</v>
+      </c>
       <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
@@ -4015,20 +4019,28 @@
         <v>188</v>
       </c>
       <c r="F104" t="n">
-        <v>2581095.4863</v>
+        <v>2587508</v>
       </c>
       <c r="G104" t="n">
-        <v>188.6833333333333</v>
+        <v>188.7</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>188</v>
+      </c>
+      <c r="K104" t="n">
+        <v>188</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4050,10 +4062,10 @@
         <v>188</v>
       </c>
       <c r="F105" t="n">
-        <v>2613016.5137</v>
+        <v>2581095.4863</v>
       </c>
       <c r="G105" t="n">
-        <v>188.6666666666667</v>
+        <v>188.6833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,8 +4074,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>188</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4085,10 +4103,10 @@
         <v>188</v>
       </c>
       <c r="F106" t="n">
-        <v>2597056</v>
+        <v>2613016.5137</v>
       </c>
       <c r="G106" t="n">
-        <v>188.65</v>
+        <v>188.6666666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4138,10 @@
         <v>188</v>
       </c>
       <c r="F107" t="n">
-        <v>2568412</v>
+        <v>2597056</v>
       </c>
       <c r="G107" t="n">
-        <v>188.6333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4173,10 @@
         <v>188</v>
       </c>
       <c r="F108" t="n">
-        <v>2617087</v>
+        <v>2568412</v>
       </c>
       <c r="G108" t="n">
-        <v>188.6166666666667</v>
+        <v>188.6333333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4208,10 @@
         <v>188</v>
       </c>
       <c r="F109" t="n">
-        <v>1472592.4863</v>
+        <v>2617087</v>
       </c>
       <c r="G109" t="n">
-        <v>188.6</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4225,10 +4243,10 @@
         <v>188</v>
       </c>
       <c r="F110" t="n">
-        <v>1011000</v>
+        <v>1472592.4863</v>
       </c>
       <c r="G110" t="n">
-        <v>188.5833333333333</v>
+        <v>188.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4260,19 +4278,23 @@
         <v>188</v>
       </c>
       <c r="F111" t="n">
-        <v>1000000</v>
+        <v>1011000</v>
       </c>
       <c r="G111" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>188</v>
+      </c>
+      <c r="K111" t="n">
+        <v>188</v>
+      </c>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
@@ -4295,20 +4317,28 @@
         <v>188</v>
       </c>
       <c r="F112" t="n">
-        <v>1275000</v>
+        <v>1000000</v>
       </c>
       <c r="G112" t="n">
-        <v>188.55</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>188</v>
+      </c>
+      <c r="K112" t="n">
+        <v>188</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4330,20 +4360,28 @@
         <v>188</v>
       </c>
       <c r="F113" t="n">
-        <v>451500</v>
+        <v>1275000</v>
       </c>
       <c r="G113" t="n">
-        <v>188.5333333333333</v>
+        <v>188.55</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>188</v>
+      </c>
+      <c r="K113" t="n">
+        <v>188</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4365,19 +4403,23 @@
         <v>188</v>
       </c>
       <c r="F114" t="n">
-        <v>1219500</v>
+        <v>451500</v>
       </c>
       <c r="G114" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>188</v>
+      </c>
+      <c r="K114" t="n">
+        <v>188</v>
+      </c>
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
@@ -4400,20 +4442,28 @@
         <v>188</v>
       </c>
       <c r="F115" t="n">
-        <v>1210500</v>
+        <v>1219500</v>
       </c>
       <c r="G115" t="n">
-        <v>188.5</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>188</v>
+      </c>
+      <c r="K115" t="n">
+        <v>188</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4435,10 +4485,10 @@
         <v>188</v>
       </c>
       <c r="F116" t="n">
-        <v>1219500</v>
+        <v>1210500</v>
       </c>
       <c r="G116" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4447,8 +4497,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>188</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4470,10 +4526,10 @@
         <v>188</v>
       </c>
       <c r="F117" t="n">
-        <v>922500</v>
+        <v>1219500</v>
       </c>
       <c r="G117" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4561,10 @@
         <v>188</v>
       </c>
       <c r="F118" t="n">
-        <v>850266.7811</v>
+        <v>922500</v>
       </c>
       <c r="G118" t="n">
-        <v>188.45</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4531,19 +4587,19 @@
         <v>188</v>
       </c>
       <c r="C119" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D119" t="n">
         <v>188</v>
       </c>
       <c r="E119" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F119" t="n">
-        <v>337596</v>
+        <v>850266.7811</v>
       </c>
       <c r="G119" t="n">
-        <v>188.4166666666667</v>
+        <v>188.45</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4619,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C120" t="n">
         <v>187</v>
       </c>
       <c r="D120" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E120" t="n">
         <v>187</v>
       </c>
       <c r="F120" t="n">
-        <v>1347.9534</v>
+        <v>337596</v>
       </c>
       <c r="G120" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4610,10 +4666,10 @@
         <v>187</v>
       </c>
       <c r="F121" t="n">
-        <v>2953.6399</v>
+        <v>1347.9534</v>
       </c>
       <c r="G121" t="n">
-        <v>188.35</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4645,10 +4701,10 @@
         <v>187</v>
       </c>
       <c r="F122" t="n">
-        <v>342.9996</v>
+        <v>2953.6399</v>
       </c>
       <c r="G122" t="n">
-        <v>188.3333333333333</v>
+        <v>188.35</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,19 +4736,23 @@
         <v>187</v>
       </c>
       <c r="F123" t="n">
-        <v>1027.2035</v>
+        <v>342.9996</v>
       </c>
       <c r="G123" t="n">
-        <v>188.3166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>187</v>
+      </c>
+      <c r="K123" t="n">
+        <v>187</v>
+      </c>
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
@@ -4715,10 +4775,10 @@
         <v>187</v>
       </c>
       <c r="F124" t="n">
-        <v>3911.7498</v>
+        <v>1027.2035</v>
       </c>
       <c r="G124" t="n">
-        <v>188.2833333333333</v>
+        <v>188.3166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>187</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4750,24 +4816,26 @@
         <v>187</v>
       </c>
       <c r="F125" t="n">
-        <v>780.476</v>
+        <v>3911.7498</v>
       </c>
       <c r="G125" t="n">
-        <v>188.25</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>187</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>187</v>
       </c>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4789,28 +4857,20 @@
         <v>187</v>
       </c>
       <c r="F126" t="n">
-        <v>5.9993</v>
+        <v>780.476</v>
       </c>
       <c r="G126" t="n">
-        <v>188.2166666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>187</v>
-      </c>
-      <c r="K126" t="n">
-        <v>187</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4832,10 +4892,10 @@
         <v>187</v>
       </c>
       <c r="F127" t="n">
-        <v>2769</v>
+        <v>5.9993</v>
       </c>
       <c r="G127" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4844,14 +4904,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>187</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4861,7 +4915,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C128" t="n">
         <v>187</v>
@@ -4870,13 +4924,13 @@
         <v>187</v>
       </c>
       <c r="E128" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F128" t="n">
-        <v>3096.0258</v>
+        <v>2769</v>
       </c>
       <c r="G128" t="n">
-        <v>188.15</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,7 +4950,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C129" t="n">
         <v>187</v>
@@ -4905,13 +4959,13 @@
         <v>187</v>
       </c>
       <c r="E129" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F129" t="n">
-        <v>4663.3509</v>
+        <v>3096.0258</v>
       </c>
       <c r="G129" t="n">
-        <v>188.1166666666667</v>
+        <v>188.15</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4943,10 +4997,10 @@
         <v>187</v>
       </c>
       <c r="F130" t="n">
-        <v>1011.0365</v>
+        <v>4663.3509</v>
       </c>
       <c r="G130" t="n">
-        <v>188.0833333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4978,10 +5032,10 @@
         <v>187</v>
       </c>
       <c r="F131" t="n">
-        <v>585</v>
+        <v>1011.0365</v>
       </c>
       <c r="G131" t="n">
-        <v>188.05</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5004,35 +5058,29 @@
         <v>187</v>
       </c>
       <c r="C132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D132" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E132" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F132" t="n">
-        <v>18106.2161</v>
+        <v>585</v>
       </c>
       <c r="G132" t="n">
-        <v>188.0333333333333</v>
+        <v>188.05</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>187</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5042,38 +5090,32 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D133" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E133" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F133" t="n">
-        <v>954.6634</v>
+        <v>18106.2161</v>
       </c>
       <c r="G133" t="n">
-        <v>187.9833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>188</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5095,26 +5137,20 @@
         <v>186</v>
       </c>
       <c r="F134" t="n">
-        <v>349.2527</v>
+        <v>954.6634</v>
       </c>
       <c r="G134" t="n">
-        <v>187.9333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>186</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5136,26 +5172,20 @@
         <v>186</v>
       </c>
       <c r="F135" t="n">
-        <v>985</v>
+        <v>349.2527</v>
       </c>
       <c r="G135" t="n">
-        <v>187.8833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>186</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5165,22 +5195,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D136" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E136" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F136" t="n">
-        <v>28800.2359</v>
+        <v>985</v>
       </c>
       <c r="G136" t="n">
-        <v>187.8166666666667</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5190,11 +5220,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5204,22 +5230,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C137" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D137" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E137" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F137" t="n">
-        <v>60.5531</v>
+        <v>28800.2359</v>
       </c>
       <c r="G137" t="n">
-        <v>187.8</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5229,11 +5255,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5246,19 +5268,19 @@
         <v>188</v>
       </c>
       <c r="C138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D138" t="n">
         <v>188</v>
       </c>
       <c r="E138" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F138" t="n">
-        <v>28900.8029</v>
+        <v>60.5531</v>
       </c>
       <c r="G138" t="n">
-        <v>187.75</v>
+        <v>187.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5268,11 +5290,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5285,19 +5303,19 @@
         <v>188</v>
       </c>
       <c r="C139" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D139" t="n">
         <v>188</v>
       </c>
       <c r="E139" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F139" t="n">
-        <v>3400</v>
+        <v>28900.8029</v>
       </c>
       <c r="G139" t="n">
-        <v>187.7333333333333</v>
+        <v>187.75</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5307,11 +5325,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5321,22 +5335,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C140" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D140" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E140" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F140" t="n">
-        <v>503.3971</v>
+        <v>3400</v>
       </c>
       <c r="G140" t="n">
-        <v>187.7</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5346,11 +5360,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5360,22 +5370,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C141" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D141" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E141" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F141" t="n">
-        <v>3316</v>
+        <v>503.3971</v>
       </c>
       <c r="G141" t="n">
-        <v>187.6833333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5385,11 +5395,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5402,16 +5408,16 @@
         <v>188</v>
       </c>
       <c r="C142" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D142" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E142" t="n">
         <v>188</v>
       </c>
       <c r="F142" t="n">
-        <v>8523.2199</v>
+        <v>3316</v>
       </c>
       <c r="G142" t="n">
         <v>187.6833333333333</v>
@@ -5424,11 +5430,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5450,7 +5452,7 @@
         <v>188</v>
       </c>
       <c r="F143" t="n">
-        <v>4038.305</v>
+        <v>8523.2199</v>
       </c>
       <c r="G143" t="n">
         <v>187.6833333333333</v>
@@ -5463,11 +5465,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5477,7 +5475,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C144" t="n">
         <v>189</v>
@@ -5486,10 +5484,10 @@
         <v>189</v>
       </c>
       <c r="E144" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F144" t="n">
-        <v>2.4232</v>
+        <v>4038.305</v>
       </c>
       <c r="G144" t="n">
         <v>187.6833333333333</v>
@@ -5502,11 +5500,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5528,7 +5522,7 @@
         <v>189</v>
       </c>
       <c r="F145" t="n">
-        <v>4627.0373</v>
+        <v>2.4232</v>
       </c>
       <c r="G145" t="n">
         <v>187.6833333333333</v>
@@ -5541,11 +5535,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5567,7 +5557,7 @@
         <v>189</v>
       </c>
       <c r="F146" t="n">
-        <v>3044.16</v>
+        <v>4627.0373</v>
       </c>
       <c r="G146" t="n">
         <v>187.6833333333333</v>
@@ -5580,11 +5570,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5606,7 +5592,7 @@
         <v>189</v>
       </c>
       <c r="F147" t="n">
-        <v>84.9008</v>
+        <v>3044.16</v>
       </c>
       <c r="G147" t="n">
         <v>187.6833333333333</v>
@@ -5619,11 +5605,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5645,10 +5627,10 @@
         <v>189</v>
       </c>
       <c r="F148" t="n">
-        <v>13.9534</v>
+        <v>84.9008</v>
       </c>
       <c r="G148" t="n">
-        <v>187.7</v>
+        <v>187.6833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5658,11 +5640,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5672,22 +5650,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E149" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F149" t="n">
-        <v>177.7926</v>
+        <v>13.9534</v>
       </c>
       <c r="G149" t="n">
-        <v>187.7333333333333</v>
+        <v>187.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5697,11 +5675,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5723,10 +5697,10 @@
         <v>190</v>
       </c>
       <c r="F150" t="n">
-        <v>75.563</v>
+        <v>177.7926</v>
       </c>
       <c r="G150" t="n">
-        <v>187.7666666666667</v>
+        <v>187.7333333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5736,11 +5710,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5750,22 +5720,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E151" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F151" t="n">
-        <v>2941.6125</v>
+        <v>75.563</v>
       </c>
       <c r="G151" t="n">
-        <v>187.8166666666667</v>
+        <v>187.7666666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5775,11 +5745,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5789,22 +5755,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E152" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F152" t="n">
-        <v>235.9364</v>
+        <v>2941.6125</v>
       </c>
       <c r="G152" t="n">
-        <v>187.85</v>
+        <v>187.8166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5814,11 +5780,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5840,47 +5802,45 @@
         <v>190</v>
       </c>
       <c r="F153" t="n">
-        <v>397.5473</v>
+        <v>235.9364</v>
       </c>
       <c r="G153" t="n">
-        <v>187.8833333333333</v>
+        <v>187.85</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E154" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>397.5473</v>
       </c>
       <c r="G154" t="n">
-        <v>187.9333333333333</v>
+        <v>187.8833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5912,10 +5872,10 @@
         <v>191</v>
       </c>
       <c r="F155" t="n">
-        <v>5558.1413</v>
+        <v>1</v>
       </c>
       <c r="G155" t="n">
-        <v>187.9833333333333</v>
+        <v>187.9333333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5947,16 +5907,16 @@
         <v>191</v>
       </c>
       <c r="F156" t="n">
-        <v>7804.0497</v>
+        <v>5558.1413</v>
       </c>
       <c r="G156" t="n">
-        <v>188.0333333333333</v>
+        <v>187.9833333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
@@ -5970,7 +5930,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C157" t="n">
         <v>191</v>
@@ -5979,19 +5939,19 @@
         <v>191</v>
       </c>
       <c r="E157" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F157" t="n">
-        <v>5135.8185</v>
+        <v>7804.0497</v>
       </c>
       <c r="G157" t="n">
-        <v>188.0833333333333</v>
+        <v>188.0333333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
@@ -6005,22 +5965,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C158" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D158" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E158" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F158" t="n">
-        <v>231.0187</v>
+        <v>5135.8185</v>
       </c>
       <c r="G158" t="n">
-        <v>188.1166666666667</v>
+        <v>188.0833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6040,22 +6000,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E159" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F159" t="n">
-        <v>6691.1874</v>
+        <v>231.0187</v>
       </c>
       <c r="G159" t="n">
-        <v>188.1333333333333</v>
+        <v>188.1166666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6075,22 +6035,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E160" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F160" t="n">
-        <v>8882.983899999999</v>
+        <v>6691.1874</v>
       </c>
       <c r="G160" t="n">
-        <v>188.1833333333333</v>
+        <v>188.1333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6110,22 +6070,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E161" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F161" t="n">
-        <v>2136.79</v>
+        <v>8882.983899999999</v>
       </c>
       <c r="G161" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6145,22 +6105,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E162" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F162" t="n">
-        <v>1</v>
+        <v>2136.79</v>
       </c>
       <c r="G162" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6180,22 +6140,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E163" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F163" t="n">
-        <v>901.1508</v>
+        <v>1</v>
       </c>
       <c r="G163" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6227,10 +6187,10 @@
         <v>189</v>
       </c>
       <c r="F164" t="n">
-        <v>2550</v>
+        <v>901.1508</v>
       </c>
       <c r="G164" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6262,10 +6222,10 @@
         <v>189</v>
       </c>
       <c r="F165" t="n">
-        <v>3550</v>
+        <v>2550</v>
       </c>
       <c r="G165" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6285,19 +6245,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D166" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E166" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F166" t="n">
-        <v>6196.2395</v>
+        <v>3550</v>
       </c>
       <c r="G166" t="n">
         <v>188.2833333333333</v>
@@ -6329,10 +6289,10 @@
         <v>188</v>
       </c>
       <c r="E167" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F167" t="n">
-        <v>195.6125</v>
+        <v>6196.2395</v>
       </c>
       <c r="G167" t="n">
         <v>188.2833333333333</v>
@@ -6367,7 +6327,7 @@
         <v>188</v>
       </c>
       <c r="F168" t="n">
-        <v>537.6147</v>
+        <v>195.6125</v>
       </c>
       <c r="G168" t="n">
         <v>188.2833333333333</v>
@@ -6402,7 +6362,7 @@
         <v>188</v>
       </c>
       <c r="F169" t="n">
-        <v>692.9382000000001</v>
+        <v>537.6147</v>
       </c>
       <c r="G169" t="n">
         <v>188.2833333333333</v>
@@ -6425,22 +6385,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E170" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F170" t="n">
-        <v>786.7415</v>
+        <v>692.9382000000001</v>
       </c>
       <c r="G170" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6460,19 +6420,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E171" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F171" t="n">
-        <v>169.7649</v>
+        <v>786.7415</v>
       </c>
       <c r="G171" t="n">
         <v>188.2666666666667</v>
@@ -6507,7 +6467,7 @@
         <v>188</v>
       </c>
       <c r="F172" t="n">
-        <v>13</v>
+        <v>169.7649</v>
       </c>
       <c r="G172" t="n">
         <v>188.2666666666667</v>
@@ -6542,7 +6502,7 @@
         <v>188</v>
       </c>
       <c r="F173" t="n">
-        <v>3050</v>
+        <v>13</v>
       </c>
       <c r="G173" t="n">
         <v>188.2666666666667</v>
@@ -6565,22 +6525,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E174" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F174" t="n">
-        <v>1468.4558</v>
+        <v>3050</v>
       </c>
       <c r="G174" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6612,10 +6572,10 @@
         <v>187</v>
       </c>
       <c r="F175" t="n">
-        <v>2934.2584</v>
+        <v>1468.4558</v>
       </c>
       <c r="G175" t="n">
-        <v>188.2333333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6635,19 +6595,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E176" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F176" t="n">
-        <v>293.4739</v>
+        <v>2934.2584</v>
       </c>
       <c r="G176" t="n">
         <v>188.2333333333333</v>
@@ -6682,7 +6642,7 @@
         <v>188</v>
       </c>
       <c r="F177" t="n">
-        <v>1315.4026</v>
+        <v>293.4739</v>
       </c>
       <c r="G177" t="n">
         <v>188.2333333333333</v>
@@ -6717,7 +6677,7 @@
         <v>188</v>
       </c>
       <c r="F178" t="n">
-        <v>176.8253</v>
+        <v>1315.4026</v>
       </c>
       <c r="G178" t="n">
         <v>188.2333333333333</v>
@@ -6752,10 +6712,10 @@
         <v>188</v>
       </c>
       <c r="F179" t="n">
-        <v>600</v>
+        <v>176.8253</v>
       </c>
       <c r="G179" t="n">
-        <v>188.25</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6787,10 +6747,10 @@
         <v>188</v>
       </c>
       <c r="F180" t="n">
-        <v>2700</v>
+        <v>600</v>
       </c>
       <c r="G180" t="n">
-        <v>188.2666666666667</v>
+        <v>188.25</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6810,22 +6770,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C181" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D181" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E181" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F181" t="n">
-        <v>68237.6752</v>
+        <v>2700</v>
       </c>
       <c r="G181" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6848,19 +6808,19 @@
         <v>187</v>
       </c>
       <c r="C182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D182" t="n">
         <v>187</v>
       </c>
       <c r="E182" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F182" t="n">
-        <v>9029.0749</v>
+        <v>68237.6752</v>
       </c>
       <c r="G182" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6880,22 +6840,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C183" t="n">
         <v>186</v>
       </c>
       <c r="D183" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E183" t="n">
         <v>186</v>
       </c>
       <c r="F183" t="n">
-        <v>1.5021</v>
+        <v>9029.0749</v>
       </c>
       <c r="G183" t="n">
-        <v>188.2</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6915,19 +6875,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E184" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F184" t="n">
-        <v>526.3157</v>
+        <v>1.5021</v>
       </c>
       <c r="G184" t="n">
         <v>188.2</v>
@@ -6950,22 +6910,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E185" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F185" t="n">
-        <v>303.3439</v>
+        <v>526.3157</v>
       </c>
       <c r="G185" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6988,16 +6948,16 @@
         <v>186</v>
       </c>
       <c r="C186" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D186" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E186" t="n">
         <v>186</v>
       </c>
       <c r="F186" t="n">
-        <v>1669</v>
+        <v>303.3439</v>
       </c>
       <c r="G186" t="n">
         <v>188.1833333333333</v>
@@ -7020,7 +6980,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" t="n">
         <v>187</v>
@@ -7029,10 +6989,10 @@
         <v>187</v>
       </c>
       <c r="E187" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F187" t="n">
-        <v>8995.6919</v>
+        <v>1669</v>
       </c>
       <c r="G187" t="n">
         <v>188.1833333333333</v>
@@ -7055,35 +7015,31 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E188" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F188" t="n">
-        <v>1000</v>
+        <v>8995.6919</v>
       </c>
       <c r="G188" t="n">
-        <v>188.2166666666667</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>187</v>
-      </c>
-      <c r="K188" t="n">
-        <v>187</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
@@ -7106,28 +7062,20 @@
         <v>189</v>
       </c>
       <c r="F189" t="n">
-        <v>6510.4338</v>
+        <v>1000</v>
       </c>
       <c r="G189" t="n">
-        <v>188.25</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>189</v>
-      </c>
-      <c r="K189" t="n">
-        <v>187</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7149,10 +7097,10 @@
         <v>189</v>
       </c>
       <c r="F190" t="n">
-        <v>870.7566</v>
+        <v>6510.4338</v>
       </c>
       <c r="G190" t="n">
-        <v>188.2833333333333</v>
+        <v>188.25</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7161,14 +7109,8 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>187</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7178,22 +7120,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C191" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D191" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E191" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F191" t="n">
-        <v>39536.8292</v>
+        <v>870.7566</v>
       </c>
       <c r="G191" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7213,22 +7155,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C192" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E192" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F192" t="n">
-        <v>6560.0916</v>
+        <v>39536.8292</v>
       </c>
       <c r="G192" t="n">
-        <v>188.25</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7248,22 +7190,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E193" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F193" t="n">
-        <v>15</v>
+        <v>6560.0916</v>
       </c>
       <c r="G193" t="n">
-        <v>188.3</v>
+        <v>188.25</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7295,10 +7237,10 @@
         <v>189</v>
       </c>
       <c r="F194" t="n">
-        <v>6378.4221</v>
+        <v>15</v>
       </c>
       <c r="G194" t="n">
-        <v>188.35</v>
+        <v>188.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7330,10 +7272,10 @@
         <v>189</v>
       </c>
       <c r="F195" t="n">
-        <v>307.719</v>
+        <v>6378.4221</v>
       </c>
       <c r="G195" t="n">
-        <v>188.4</v>
+        <v>188.35</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7353,22 +7295,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E196" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F196" t="n">
-        <v>2870.3315</v>
+        <v>307.719</v>
       </c>
       <c r="G196" t="n">
-        <v>188.4833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7388,19 +7330,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E197" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F197" t="n">
-        <v>300</v>
+        <v>2870.3315</v>
       </c>
       <c r="G197" t="n">
         <v>188.4833333333333</v>
@@ -7435,10 +7377,10 @@
         <v>188</v>
       </c>
       <c r="F198" t="n">
-        <v>10153.0478</v>
+        <v>300</v>
       </c>
       <c r="G198" t="n">
-        <v>188.5166666666667</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7470,7 +7412,7 @@
         <v>188</v>
       </c>
       <c r="F199" t="n">
-        <v>232.1854</v>
+        <v>10153.0478</v>
       </c>
       <c r="G199" t="n">
         <v>188.5166666666667</v>
@@ -7505,10 +7447,10 @@
         <v>188</v>
       </c>
       <c r="F200" t="n">
-        <v>2340.2466</v>
+        <v>232.1854</v>
       </c>
       <c r="G200" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7540,7 +7482,7 @@
         <v>188</v>
       </c>
       <c r="F201" t="n">
-        <v>476.2057</v>
+        <v>2340.2466</v>
       </c>
       <c r="G201" t="n">
         <v>188.5333333333333</v>
@@ -7575,10 +7517,10 @@
         <v>188</v>
       </c>
       <c r="F202" t="n">
-        <v>84.4147</v>
+        <v>476.2057</v>
       </c>
       <c r="G202" t="n">
-        <v>188.5166666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7598,22 +7540,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F203" t="n">
-        <v>137.723</v>
+        <v>84.4147</v>
       </c>
       <c r="G203" t="n">
-        <v>188.4833333333333</v>
+        <v>188.5166666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7633,22 +7575,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E204" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F204" t="n">
-        <v>9.975</v>
+        <v>137.723</v>
       </c>
       <c r="G204" t="n">
-        <v>188.4333333333333</v>
+        <v>188.4833333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7668,22 +7610,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E205" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F205" t="n">
-        <v>5667.07</v>
+        <v>9.975</v>
       </c>
       <c r="G205" t="n">
-        <v>188.4</v>
+        <v>188.4333333333333</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7703,22 +7645,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E206" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F206" t="n">
-        <v>801</v>
+        <v>5667.07</v>
       </c>
       <c r="G206" t="n">
-        <v>188.3833333333333</v>
+        <v>188.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7750,10 +7692,10 @@
         <v>188</v>
       </c>
       <c r="F207" t="n">
-        <v>3762.2141</v>
+        <v>801</v>
       </c>
       <c r="G207" t="n">
-        <v>188.3666666666667</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7773,19 +7715,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E208" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F208" t="n">
-        <v>457.142</v>
+        <v>3762.2141</v>
       </c>
       <c r="G208" t="n">
         <v>188.3666666666667</v>
@@ -7808,22 +7750,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E209" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>457.142</v>
       </c>
       <c r="G209" t="n">
-        <v>188.3833333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7855,10 +7797,10 @@
         <v>191</v>
       </c>
       <c r="F210" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>188.4</v>
+        <v>188.3833333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7881,19 +7823,19 @@
         <v>191</v>
       </c>
       <c r="C211" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D211" t="n">
         <v>191</v>
       </c>
       <c r="E211" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F211" t="n">
-        <v>88</v>
+        <v>500</v>
       </c>
       <c r="G211" t="n">
-        <v>188.3666666666667</v>
+        <v>188.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7913,19 +7855,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C212" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D212" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E212" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F212" t="n">
-        <v>31.1535</v>
+        <v>88</v>
       </c>
       <c r="G212" t="n">
         <v>188.3666666666667</v>
@@ -7934,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -7960,7 +7902,7 @@
         <v>190</v>
       </c>
       <c r="F213" t="n">
-        <v>22</v>
+        <v>31.1535</v>
       </c>
       <c r="G213" t="n">
         <v>188.3666666666667</v>
@@ -7969,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
@@ -7983,22 +7925,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E214" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F214" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="G214" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8030,10 +7972,10 @@
         <v>189</v>
       </c>
       <c r="F215" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="G215" t="n">
-        <v>188.3</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8065,10 +8007,10 @@
         <v>189</v>
       </c>
       <c r="F216" t="n">
-        <v>6000</v>
+        <v>66</v>
       </c>
       <c r="G216" t="n">
-        <v>188.2666666666667</v>
+        <v>188.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8100,10 +8042,10 @@
         <v>189</v>
       </c>
       <c r="F217" t="n">
-        <v>5031.1535</v>
+        <v>6000</v>
       </c>
       <c r="G217" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8123,19 +8065,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E218" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F218" t="n">
-        <v>1</v>
+        <v>5031.1535</v>
       </c>
       <c r="G218" t="n">
         <v>188.2333333333333</v>
@@ -8158,19 +8100,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E219" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F219" t="n">
-        <v>10850.562</v>
+        <v>1</v>
       </c>
       <c r="G219" t="n">
         <v>188.2333333333333</v>
@@ -8205,10 +8147,10 @@
         <v>189</v>
       </c>
       <c r="F220" t="n">
-        <v>1469.9651</v>
+        <v>10850.562</v>
       </c>
       <c r="G220" t="n">
-        <v>188.2</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8240,7 +8182,7 @@
         <v>189</v>
       </c>
       <c r="F221" t="n">
-        <v>6836.2676</v>
+        <v>1469.9651</v>
       </c>
       <c r="G221" t="n">
         <v>188.2</v>
@@ -8275,10 +8217,10 @@
         <v>189</v>
       </c>
       <c r="F222" t="n">
-        <v>6616.7751</v>
+        <v>6836.2676</v>
       </c>
       <c r="G222" t="n">
-        <v>188.1833333333333</v>
+        <v>188.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8310,7 +8252,7 @@
         <v>189</v>
       </c>
       <c r="F223" t="n">
-        <v>593.159</v>
+        <v>6616.7751</v>
       </c>
       <c r="G223" t="n">
         <v>188.1833333333333</v>
@@ -8345,7 +8287,7 @@
         <v>189</v>
       </c>
       <c r="F224" t="n">
-        <v>456.611</v>
+        <v>593.159</v>
       </c>
       <c r="G224" t="n">
         <v>188.1833333333333</v>
@@ -8380,7 +8322,7 @@
         <v>189</v>
       </c>
       <c r="F225" t="n">
-        <v>2</v>
+        <v>456.611</v>
       </c>
       <c r="G225" t="n">
         <v>188.1833333333333</v>
@@ -8415,10 +8357,10 @@
         <v>189</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
-        <v>188.2</v>
+        <v>188.1833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8450,10 +8392,10 @@
         <v>189</v>
       </c>
       <c r="F227" t="n">
-        <v>161.3619</v>
+        <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>188.2166666666667</v>
+        <v>188.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8485,10 +8427,10 @@
         <v>189</v>
       </c>
       <c r="F228" t="n">
-        <v>2754.8153</v>
+        <v>161.3619</v>
       </c>
       <c r="G228" t="n">
-        <v>188.2333333333333</v>
+        <v>188.2166666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8508,19 +8450,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C229" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D229" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E229" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F229" t="n">
-        <v>1542.4859</v>
+        <v>2754.8153</v>
       </c>
       <c r="G229" t="n">
         <v>188.2333333333333</v>
@@ -8543,22 +8485,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C230" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D230" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E230" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F230" t="n">
-        <v>5195</v>
+        <v>1542.4859</v>
       </c>
       <c r="G230" t="n">
-        <v>188.2666666666667</v>
+        <v>188.2333333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8587,13 +8529,13 @@
         <v>189</v>
       </c>
       <c r="E231" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F231" t="n">
-        <v>5687.2448</v>
+        <v>5195</v>
       </c>
       <c r="G231" t="n">
-        <v>188.2833333333333</v>
+        <v>188.2666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8622,13 +8564,13 @@
         <v>189</v>
       </c>
       <c r="E232" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F232" t="n">
-        <v>4658.3194</v>
+        <v>5687.2448</v>
       </c>
       <c r="G232" t="n">
-        <v>188.3</v>
+        <v>188.2833333333333</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8648,22 +8590,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E233" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F233" t="n">
-        <v>220.369</v>
+        <v>4658.3194</v>
       </c>
       <c r="G233" t="n">
-        <v>188.3333333333333</v>
+        <v>188.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8686,19 +8628,19 @@
         <v>190</v>
       </c>
       <c r="C234" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D234" t="n">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E234" t="n">
         <v>190</v>
       </c>
       <c r="F234" t="n">
-        <v>14897.0989</v>
+        <v>220.369</v>
       </c>
       <c r="G234" t="n">
-        <v>188.4166666666667</v>
+        <v>188.3333333333333</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8721,19 +8663,19 @@
         <v>190</v>
       </c>
       <c r="C235" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D235" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E235" t="n">
         <v>190</v>
       </c>
       <c r="F235" t="n">
-        <v>265.5536</v>
+        <v>14897.0989</v>
       </c>
       <c r="G235" t="n">
-        <v>188.4666666666667</v>
+        <v>188.4166666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8765,10 +8707,10 @@
         <v>190</v>
       </c>
       <c r="F236" t="n">
-        <v>3396.5063</v>
+        <v>265.5536</v>
       </c>
       <c r="G236" t="n">
-        <v>188.5</v>
+        <v>188.4666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8800,10 +8742,10 @@
         <v>190</v>
       </c>
       <c r="F237" t="n">
-        <v>523.8238</v>
+        <v>3396.5063</v>
       </c>
       <c r="G237" t="n">
-        <v>188.5333333333333</v>
+        <v>188.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8823,22 +8765,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C238" t="n">
         <v>190</v>
       </c>
       <c r="D238" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E238" t="n">
         <v>190</v>
       </c>
       <c r="F238" t="n">
-        <v>5431.5037</v>
+        <v>523.8238</v>
       </c>
       <c r="G238" t="n">
-        <v>188.5666666666667</v>
+        <v>188.5333333333333</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8861,19 +8803,19 @@
         <v>191</v>
       </c>
       <c r="C239" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D239" t="n">
         <v>191</v>
       </c>
       <c r="E239" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F239" t="n">
-        <v>5235.0141</v>
+        <v>5431.5037</v>
       </c>
       <c r="G239" t="n">
-        <v>188.6166666666667</v>
+        <v>188.5666666666667</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8893,22 +8835,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E240" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F240" t="n">
-        <v>207.4173</v>
+        <v>5235.0141</v>
       </c>
       <c r="G240" t="n">
-        <v>188.65</v>
+        <v>188.6166666666667</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8928,22 +8870,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C241" t="n">
         <v>190</v>
       </c>
       <c r="D241" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E241" t="n">
         <v>190</v>
       </c>
       <c r="F241" t="n">
-        <v>2589.5176</v>
+        <v>207.4173</v>
       </c>
       <c r="G241" t="n">
-        <v>188.7333333333333</v>
+        <v>188.65</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8963,22 +8905,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C242" t="n">
         <v>190</v>
       </c>
       <c r="D242" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E242" t="n">
         <v>190</v>
       </c>
       <c r="F242" t="n">
-        <v>10008</v>
+        <v>2589.5176</v>
       </c>
       <c r="G242" t="n">
-        <v>188.8</v>
+        <v>188.7333333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9010,10 +8952,10 @@
         <v>190</v>
       </c>
       <c r="F243" t="n">
-        <v>246.4479</v>
+        <v>10008</v>
       </c>
       <c r="G243" t="n">
-        <v>188.8666666666667</v>
+        <v>188.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9045,10 +8987,10 @@
         <v>190</v>
       </c>
       <c r="F244" t="n">
-        <v>581</v>
+        <v>246.4479</v>
       </c>
       <c r="G244" t="n">
-        <v>188.9166666666667</v>
+        <v>188.8666666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9068,22 +9010,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E245" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F245" t="n">
-        <v>212.7902</v>
+        <v>581</v>
       </c>
       <c r="G245" t="n">
-        <v>189</v>
+        <v>188.9166666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9115,10 +9057,10 @@
         <v>191</v>
       </c>
       <c r="F246" t="n">
-        <v>194</v>
+        <v>212.7902</v>
       </c>
       <c r="G246" t="n">
-        <v>189.0666666666667</v>
+        <v>189</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9138,22 +9080,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E247" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F247" t="n">
-        <v>189.4135</v>
+        <v>194</v>
       </c>
       <c r="G247" t="n">
-        <v>189.1166666666667</v>
+        <v>189.0666666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9185,10 +9127,10 @@
         <v>190</v>
       </c>
       <c r="F248" t="n">
-        <v>61.6425</v>
+        <v>189.4135</v>
       </c>
       <c r="G248" t="n">
-        <v>189.1333333333333</v>
+        <v>189.1166666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9211,19 +9153,19 @@
         <v>190</v>
       </c>
       <c r="C249" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D249" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E249" t="n">
         <v>190</v>
       </c>
       <c r="F249" t="n">
-        <v>4712.651</v>
+        <v>61.6425</v>
       </c>
       <c r="G249" t="n">
-        <v>189.1666666666667</v>
+        <v>189.1333333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9246,19 +9188,19 @@
         <v>190</v>
       </c>
       <c r="C250" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D250" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E250" t="n">
         <v>190</v>
       </c>
       <c r="F250" t="n">
-        <v>119.4135</v>
+        <v>4712.651</v>
       </c>
       <c r="G250" t="n">
-        <v>189.1833333333333</v>
+        <v>189.1666666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9290,10 +9232,10 @@
         <v>190</v>
       </c>
       <c r="F251" t="n">
-        <v>96.46729999999999</v>
+        <v>119.4135</v>
       </c>
       <c r="G251" t="n">
-        <v>189.25</v>
+        <v>189.1833333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9313,22 +9255,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C252" t="n">
         <v>190</v>
       </c>
       <c r="D252" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E252" t="n">
         <v>190</v>
       </c>
       <c r="F252" t="n">
-        <v>7174.2178</v>
+        <v>96.46729999999999</v>
       </c>
       <c r="G252" t="n">
-        <v>189.3</v>
+        <v>189.25</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9351,19 +9293,19 @@
         <v>191</v>
       </c>
       <c r="C253" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D253" t="n">
         <v>191</v>
       </c>
       <c r="E253" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F253" t="n">
-        <v>2484.3389</v>
+        <v>7174.2178</v>
       </c>
       <c r="G253" t="n">
-        <v>189.3333333333333</v>
+        <v>189.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9383,22 +9325,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E254" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F254" t="n">
-        <v>14.2857</v>
+        <v>2484.3389</v>
       </c>
       <c r="G254" t="n">
-        <v>189.35</v>
+        <v>189.3333333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9418,19 +9360,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E255" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F255" t="n">
-        <v>649.8581</v>
+        <v>14.2857</v>
       </c>
       <c r="G255" t="n">
         <v>189.35</v>
@@ -9453,22 +9395,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E256" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F256" t="n">
-        <v>95.1587</v>
+        <v>649.8581</v>
       </c>
       <c r="G256" t="n">
-        <v>189.3833333333333</v>
+        <v>189.35</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9500,10 +9442,10 @@
         <v>192</v>
       </c>
       <c r="F257" t="n">
-        <v>94.8473</v>
+        <v>95.1587</v>
       </c>
       <c r="G257" t="n">
-        <v>189.45</v>
+        <v>189.3833333333333</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9523,22 +9465,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E258" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F258" t="n">
-        <v>225.1472</v>
+        <v>94.8473</v>
       </c>
       <c r="G258" t="n">
-        <v>189.5</v>
+        <v>189.45</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9561,25 +9503,25 @@
         <v>191</v>
       </c>
       <c r="C259" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D259" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E259" t="n">
         <v>191</v>
       </c>
       <c r="F259" t="n">
-        <v>2200</v>
+        <v>225.1472</v>
       </c>
       <c r="G259" t="n">
-        <v>189.5666666666667</v>
+        <v>189.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -9593,7 +9535,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C260" t="n">
         <v>192</v>
@@ -9602,13 +9544,13 @@
         <v>192</v>
       </c>
       <c r="E260" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F260" t="n">
-        <v>112.7527</v>
+        <v>2200</v>
       </c>
       <c r="G260" t="n">
-        <v>189.6333333333333</v>
+        <v>189.5666666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9640,10 +9582,10 @@
         <v>192</v>
       </c>
       <c r="F261" t="n">
-        <v>134.7054</v>
+        <v>112.7527</v>
       </c>
       <c r="G261" t="n">
-        <v>189.7</v>
+        <v>189.6333333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9675,10 +9617,10 @@
         <v>192</v>
       </c>
       <c r="F262" t="n">
-        <v>21.8069</v>
+        <v>134.7054</v>
       </c>
       <c r="G262" t="n">
-        <v>189.7666666666667</v>
+        <v>189.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9710,10 +9652,10 @@
         <v>192</v>
       </c>
       <c r="F263" t="n">
-        <v>4687.8569</v>
+        <v>21.8069</v>
       </c>
       <c r="G263" t="n">
-        <v>189.85</v>
+        <v>189.7666666666667</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9733,22 +9675,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E264" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F264" t="n">
-        <v>1876.208</v>
+        <v>4687.8569</v>
       </c>
       <c r="G264" t="n">
-        <v>189.9333333333333</v>
+        <v>189.85</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9780,10 +9722,10 @@
         <v>191</v>
       </c>
       <c r="F265" t="n">
-        <v>2073</v>
+        <v>1876.208</v>
       </c>
       <c r="G265" t="n">
-        <v>190</v>
+        <v>189.9333333333333</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9815,10 +9757,10 @@
         <v>191</v>
       </c>
       <c r="F266" t="n">
-        <v>884.4933</v>
+        <v>2073</v>
       </c>
       <c r="G266" t="n">
-        <v>190.05</v>
+        <v>190</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9850,10 +9792,10 @@
         <v>191</v>
       </c>
       <c r="F267" t="n">
-        <v>334.2385</v>
+        <v>884.4933</v>
       </c>
       <c r="G267" t="n">
-        <v>190.1</v>
+        <v>190.05</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9873,22 +9815,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E268" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F268" t="n">
-        <v>1000</v>
+        <v>334.2385</v>
       </c>
       <c r="G268" t="n">
-        <v>190.1166666666667</v>
+        <v>190.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9908,19 +9850,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E269" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F269" t="n">
-        <v>266.1577</v>
+        <v>1000</v>
       </c>
       <c r="G269" t="n">
         <v>190.1166666666667</v>
@@ -9943,22 +9885,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E270" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F270" t="n">
-        <v>1168.2004</v>
+        <v>266.1577</v>
       </c>
       <c r="G270" t="n">
-        <v>190.1333333333333</v>
+        <v>190.1166666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9978,22 +9920,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E271" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F271" t="n">
-        <v>1</v>
+        <v>1168.2004</v>
       </c>
       <c r="G271" t="n">
-        <v>190.2</v>
+        <v>190.1333333333333</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10025,10 +9967,10 @@
         <v>193</v>
       </c>
       <c r="F272" t="n">
-        <v>18.2235</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
-        <v>190.25</v>
+        <v>190.2</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10048,22 +9990,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E273" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F273" t="n">
-        <v>1</v>
+        <v>18.2235</v>
       </c>
       <c r="G273" t="n">
-        <v>190.3166666666667</v>
+        <v>190.25</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10086,19 +10028,19 @@
         <v>194</v>
       </c>
       <c r="C274" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D274" t="n">
         <v>194</v>
       </c>
       <c r="E274" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F274" t="n">
-        <v>1386.799</v>
+        <v>1</v>
       </c>
       <c r="G274" t="n">
-        <v>190.3666666666667</v>
+        <v>190.3166666666667</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10121,19 +10063,19 @@
         <v>194</v>
       </c>
       <c r="C275" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D275" t="n">
         <v>194</v>
       </c>
       <c r="E275" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F275" t="n">
-        <v>1</v>
+        <v>1386.799</v>
       </c>
       <c r="G275" t="n">
-        <v>190.45</v>
+        <v>190.3666666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10153,22 +10095,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E276" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F276" t="n">
-        <v>299.9999</v>
+        <v>1</v>
       </c>
       <c r="G276" t="n">
-        <v>190.5166666666667</v>
+        <v>190.45</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10200,10 +10142,10 @@
         <v>193</v>
       </c>
       <c r="F277" t="n">
-        <v>3189.8993</v>
+        <v>299.9999</v>
       </c>
       <c r="G277" t="n">
-        <v>190.5833333333333</v>
+        <v>190.5166666666667</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10223,22 +10165,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E278" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F278" t="n">
-        <v>12.7526</v>
+        <v>3189.8993</v>
       </c>
       <c r="G278" t="n">
-        <v>190.6166666666667</v>
+        <v>190.5833333333333</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10264,16 +10206,16 @@
         <v>192</v>
       </c>
       <c r="D279" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E279" t="n">
         <v>192</v>
       </c>
       <c r="F279" t="n">
-        <v>8015.3102</v>
+        <v>12.7526</v>
       </c>
       <c r="G279" t="n">
-        <v>190.6666666666667</v>
+        <v>190.6166666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10299,16 +10241,16 @@
         <v>192</v>
       </c>
       <c r="D280" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E280" t="n">
         <v>192</v>
       </c>
       <c r="F280" t="n">
-        <v>4155.9999</v>
+        <v>8015.3102</v>
       </c>
       <c r="G280" t="n">
-        <v>190.7166666666667</v>
+        <v>190.6666666666667</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10331,19 +10273,19 @@
         <v>192</v>
       </c>
       <c r="C281" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D281" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E281" t="n">
         <v>192</v>
       </c>
       <c r="F281" t="n">
-        <v>1294.4803</v>
+        <v>4155.9999</v>
       </c>
       <c r="G281" t="n">
-        <v>190.7833333333333</v>
+        <v>190.7166666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10363,22 +10305,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C282" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D282" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E282" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F282" t="n">
-        <v>1</v>
+        <v>1294.4803</v>
       </c>
       <c r="G282" t="n">
-        <v>190.8166666666667</v>
+        <v>190.7833333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10398,22 +10340,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C283" t="n">
         <v>191</v>
       </c>
       <c r="D283" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E283" t="n">
         <v>191</v>
       </c>
       <c r="F283" t="n">
-        <v>816.6412</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
-        <v>190.85</v>
+        <v>190.8166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10436,19 +10378,19 @@
         <v>193</v>
       </c>
       <c r="C284" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D284" t="n">
         <v>193</v>
       </c>
       <c r="E284" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>816.6412</v>
       </c>
       <c r="G284" t="n">
-        <v>190.9166666666667</v>
+        <v>190.85</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10463,6 +10405,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>193</v>
+      </c>
+      <c r="C285" t="n">
+        <v>193</v>
+      </c>
+      <c r="D285" t="n">
+        <v>193</v>
+      </c>
+      <c r="E285" t="n">
+        <v>193</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1</v>
+      </c>
+      <c r="G285" t="n">
+        <v>190.9166666666667</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2432888.4029</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-2432888.4029</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>186</v>
-      </c>
-      <c r="J3" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-2432888.4029</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>186</v>
-      </c>
-      <c r="J4" t="n">
-        <v>186</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -565,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>186</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,19 +583,11 @@
         <v>-608206.4028999996</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>187</v>
-      </c>
-      <c r="J6" t="n">
-        <v>186</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -645,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>186</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -684,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>186</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -723,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>186</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -762,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>186</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>186</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -840,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>186</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -879,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>186</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -918,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>186</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -957,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>186</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -996,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>186</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1035,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>186</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1074,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>186</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1113,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>186</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1152,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>186</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1191,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>186</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1230,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>186</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1269,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>186</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1308,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>186</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1347,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>186</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1386,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>186</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1425,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>186</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>186</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1503,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>186</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1542,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>186</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1581,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>186</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1620,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>186</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1659,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>186</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1698,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>186</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1737,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>186</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1776,14 +1576,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>186</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1815,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>186</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1854,14 +1642,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>186</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1675,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>186</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1932,14 +1708,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>186</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1971,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>186</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2010,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>186</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2049,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>186</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2088,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>186</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2127,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>186</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>186</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2205,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>186</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2244,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>186</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2283,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>186</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2322,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>186</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2361,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>186</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2400,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>186</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2439,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>186</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2478,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>186</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2517,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>186</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2556,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>186</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2595,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>186</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2634,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>186</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2673,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>186</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2712,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>186</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2751,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>186</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2790,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>186</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2829,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>186</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2868,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>186</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2907,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>186</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2946,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>186</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2982,19 +2596,11 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>187</v>
-      </c>
-      <c r="J67" t="n">
-        <v>186</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>186</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>186</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>186</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>186</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>186</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>186</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3257,17 +2827,15 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>187</v>
+      </c>
       <c r="J74" t="n">
-        <v>186</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3296,15 +2864,17 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>187</v>
+      </c>
       <c r="J75" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3335,17 +2905,17 @@
         <v>180546.5560000004</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>187</v>
       </c>
       <c r="J76" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L76" t="n">
@@ -3376,11 +2946,13 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>188</v>
+      </c>
       <c r="J77" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3415,13 +2987,13 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>187</v>
       </c>
       <c r="J78" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3460,7 +3032,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3499,7 +3071,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3538,7 +3110,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3573,19 +3145,21 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>187</v>
+      </c>
       <c r="J82" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.005752688172043</v>
+        <v>1</v>
       </c>
       <c r="M82" t="inlineStr"/>
     </row>
@@ -3615,8 +3189,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>187</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3645,15 +3225,17 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>188</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+        <v>187</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +3268,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L85" t="n">
@@ -3725,11 +3307,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L86" t="n">
@@ -3763,8 +3345,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>187</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3793,11 +3381,17 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>187</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3829,8 +3423,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>187</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3862,8 +3462,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>187</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3895,8 +3501,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>187</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3928,8 +3540,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>187</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3961,8 +3579,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>187</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3994,8 +3618,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>187</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4027,8 +3657,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>187</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4060,8 +3696,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>187</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4093,8 +3735,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4126,8 +3774,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>187</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4159,8 +3813,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>187</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4192,8 +3852,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>187</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4225,8 +3891,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>187</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4258,8 +3930,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>187</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4291,8 +3969,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4324,8 +4008,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>187</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +4044,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>187</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4390,8 +4086,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>187</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4423,8 +4125,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4456,8 +4164,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>187</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4489,8 +4203,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>187</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4522,8 +4242,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>187</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4555,8 +4281,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>187</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4588,8 +4320,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>187</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4621,8 +4359,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>187</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +4398,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>187</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4684,13 +4434,19 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>187</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>1.005695187165776</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4717,7 +4473,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4750,7 +4506,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4783,7 +4539,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4816,7 +4572,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4849,7 +4605,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4882,7 +4638,7 @@
         <v>-1291515.7946</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4915,7 +4671,7 @@
         <v>-1291515.7946</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4948,7 +4704,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4981,7 +4737,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5014,7 +4770,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5047,7 +4803,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5113,7 +4869,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5146,7 +4902,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5179,7 +4935,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5212,7 +4968,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5245,7 +5001,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5278,7 +5034,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5311,7 +5067,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5344,7 +5100,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5377,7 +5133,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5410,7 +5166,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5443,7 +5199,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5476,7 +5232,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5509,7 +5265,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5542,7 +5298,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5575,7 +5331,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5740,7 +5496,7 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6730,10 +6486,14 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>188</v>
+      </c>
+      <c r="J177" t="n">
+        <v>188</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6766,8 +6526,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>188</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6796,15 +6562,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>187</v>
       </c>
       <c r="J179" t="n">
-        <v>187</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6833,17 +6603,17 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>187</v>
       </c>
       <c r="J180" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6874,17 +6644,17 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>187</v>
       </c>
       <c r="J181" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -6915,11 +6685,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>187</v>
+      </c>
+      <c r="J182" t="n">
+        <v>188</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6951,8 +6729,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>188</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6984,8 +6768,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>188</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7014,15 +6804,17 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>187</v>
-      </c>
-      <c r="K185" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7055,11 +6847,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L186" t="n">
@@ -7094,11 +6886,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -7129,11 +6921,13 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>187</v>
+      </c>
       <c r="J188" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7168,11 +6962,13 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>187</v>
+      </c>
       <c r="J189" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7211,7 +7007,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7246,11 +7042,13 @@
         <v>-1393960.6727</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>187</v>
+      </c>
       <c r="J191" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7285,11 +7083,13 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>188</v>
+      </c>
       <c r="J192" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7324,13 +7124,13 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>186</v>
       </c>
       <c r="J193" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7365,11 +7165,13 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>186</v>
+      </c>
       <c r="J194" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7404,13 +7206,13 @@
         <v>-1423715.571999999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>186</v>
       </c>
       <c r="J195" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7445,13 +7247,11 @@
         <v>-1423655.0189</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7486,13 +7286,11 @@
         <v>-1452555.8218</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7531,7 +7329,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7566,13 +7364,11 @@
         <v>-1449659.2189</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7611,7 +7407,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7646,11 +7442,13 @@
         <v>-1437819.999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>188</v>
+      </c>
       <c r="J201" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7689,7 +7487,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7728,7 +7526,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7767,7 +7565,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7806,7 +7604,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7845,7 +7643,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7880,19 +7678,19 @@
         <v>-1437819.999</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.005695187165776</v>
+        <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
@@ -7919,11 +7717,17 @@
         <v>-1437642.2064</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>188</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7955,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>188</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7988,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>188</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8021,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>188</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8054,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>188</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>188</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8117,11 +7951,17 @@
         <v>-1434935.5303</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>188</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8150,11 +7990,17 @@
         <v>-1434935.5303</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>188</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8183,11 +8029,17 @@
         <v>-1434935.5303</v>
       </c>
       <c r="H216" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>188</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +8068,17 @@
         <v>-1435166.548999999</v>
       </c>
       <c r="H217" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>188</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8249,11 +8107,17 @@
         <v>-1441857.736399999</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>188</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8282,11 +8146,17 @@
         <v>-1432974.752499999</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>188</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8315,11 +8185,17 @@
         <v>-1435111.542499999</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>188</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8348,11 +8224,17 @@
         <v>-1435110.542499999</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>188</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8381,11 +8263,17 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>188</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8414,11 +8302,17 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>188</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8447,11 +8341,17 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>188</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8483,8 +8383,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>188</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8516,8 +8422,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>188</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8546,11 +8458,19 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>188</v>
+      </c>
+      <c r="J227" t="n">
+        <v>188</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +8502,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>188</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8615,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>188</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8645,15 +8577,17 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>187</v>
-      </c>
-      <c r="K230" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8686,11 +8620,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L231" t="n">
@@ -8721,17 +8655,15 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L232" t="n">
@@ -8765,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>188</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8795,15 +8733,17 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>187</v>
-      </c>
-      <c r="K234" t="inlineStr"/>
+        <v>188</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +8776,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L235" t="n">
@@ -8871,17 +8811,15 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L236" t="n">
@@ -8915,8 +8853,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>188</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8945,15 +8889,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>188</v>
       </c>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8990,7 +8936,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L239" t="n">
@@ -9029,7 +8975,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L240" t="n">
@@ -9060,11 +9006,9 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>185</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>188</v>
       </c>
@@ -9101,11 +9045,9 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>186</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>188</v>
       </c>
@@ -9142,7 +9084,7 @@
         <v>-1502682.175899999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>186</v>
@@ -9183,11 +9125,9 @@
         <v>-1502985.519799999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>188</v>
       </c>
@@ -9224,7 +9164,7 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>186</v>
@@ -9265,11 +9205,9 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>188</v>
       </c>
@@ -10164,7 +10102,7 @@
         <v>-1523920.411899999</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
@@ -10203,7 +10141,7 @@
         <v>-1524008.411899999</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
@@ -10242,7 +10180,7 @@
         <v>-1523977.258399999</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
@@ -10281,7 +10219,7 @@
         <v>-1523977.258399999</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
@@ -10320,7 +10258,7 @@
         <v>-1524021.258399999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
@@ -10359,7 +10297,7 @@
         <v>-1524021.258399999</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
@@ -10398,7 +10336,7 @@
         <v>-1524021.258399999</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
@@ -10437,7 +10375,7 @@
         <v>-1524021.258399999</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
@@ -10476,7 +10414,7 @@
         <v>-1524020.258399999</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
@@ -10515,7 +10453,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
@@ -10632,7 +10570,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
@@ -10671,7 +10609,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
@@ -10710,7 +10648,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
@@ -10827,7 +10765,7 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
@@ -10944,7 +10882,7 @@
         <v>-1531218.306299999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
@@ -11100,7 +11038,7 @@
         <v>-1516100.838399999</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
@@ -11139,7 +11077,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
@@ -11178,7 +11116,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
@@ -11256,7 +11194,7 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
@@ -11295,7 +11233,7 @@
         <v>-1511131.377899999</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
@@ -11334,7 +11272,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
@@ -11412,7 +11350,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
@@ -11451,7 +11389,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
@@ -11490,7 +11428,7 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
@@ -11529,7 +11467,7 @@
         <v>-1511126.004999999</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
@@ -11568,7 +11506,7 @@
         <v>-1511126.004999999</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
@@ -11607,7 +11545,7 @@
         <v>-1511315.418499999</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
@@ -11763,7 +11701,7 @@
         <v>-1506722.180999999</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
@@ -11880,7 +11818,7 @@
         <v>-1504252.127799999</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
@@ -11919,7 +11857,7 @@
         <v>-1504901.985899999</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
@@ -12036,7 +11974,7 @@
         <v>-1505031.974399999</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
@@ -12738,7 +12676,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
@@ -12746,11 +12684,11 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="M335" t="inlineStr"/>
     </row>
@@ -12777,13 +12715,19 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>188</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L336" t="n">
-        <v>1</v>
+        <v>1.021595744680851</v>
       </c>
       <c r="M336" t="inlineStr"/>
     </row>
@@ -12810,7 +12754,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12843,7 +12787,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12876,7 +12820,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12909,7 +12853,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12942,7 +12886,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12975,7 +12919,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13008,7 +12952,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13041,7 +12985,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13074,7 +13018,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13107,7 +13051,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13140,7 +13084,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13173,7 +13117,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13206,7 +13150,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13239,7 +13183,7 @@
         <v>-1500239.411699999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13272,7 +13216,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13305,7 +13249,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13338,7 +13282,7 @@
         <v>-1498582.201499999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13349,6 +13293,6 @@
       <c r="M353" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2827,14 +2827,10 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>187</v>
-      </c>
-      <c r="J74" t="n">
-        <v>187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2864,19 +2860,11 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>187</v>
-      </c>
-      <c r="J75" t="n">
-        <v>187</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2905,19 +2893,11 @@
         <v>180546.5560000004</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>187</v>
-      </c>
-      <c r="J76" t="n">
-        <v>187</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2946,19 +2926,11 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>188</v>
-      </c>
-      <c r="J77" t="n">
-        <v>187</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2987,19 +2959,11 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>187</v>
-      </c>
-      <c r="J78" t="n">
-        <v>187</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3031,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>187</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3070,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>187</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3109,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>187</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3145,19 +3091,11 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>187</v>
-      </c>
-      <c r="J82" t="n">
-        <v>187</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3189,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>187</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3228,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>187</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3267,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>187</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3306,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>187</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3345,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>187</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3384,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>187</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3423,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>187</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3462,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>187</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3501,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>187</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3540,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>187</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>187</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3618,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>187</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3657,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>187</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3696,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>187</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3735,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>187</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3774,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>187</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>187</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>187</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>187</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3927,17 +3751,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>187</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3966,17 +3784,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>187</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4005,17 +3817,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>187</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4044,17 +3850,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>187</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4083,17 +3883,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>187</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4122,17 +3916,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>187</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4161,17 +3949,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>187</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4200,17 +3982,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>187</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4239,17 +4015,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>187</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4278,17 +4048,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>187</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4317,17 +4081,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>187</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4356,17 +4114,11 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>187</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4398,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>187</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4434,19 +4180,13 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>187</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>1.005695187165776</v>
+        <v>1</v>
       </c>
       <c r="M115" t="inlineStr"/>
     </row>
@@ -4473,7 +4213,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4506,7 +4246,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4572,7 +4312,7 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4638,7 +4378,7 @@
         <v>-1291515.7946</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4671,7 +4411,7 @@
         <v>-1291515.7946</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4704,7 +4444,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4737,7 +4477,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4770,7 +4510,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4803,7 +4543,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4869,7 +4609,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4902,7 +4642,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4935,7 +4675,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4968,7 +4708,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5001,7 +4741,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5034,7 +4774,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5067,7 +4807,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5100,7 +4840,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5133,7 +4873,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5166,7 +4906,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5199,7 +4939,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5232,7 +4972,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5265,7 +5005,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5298,7 +5038,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5331,7 +5071,7 @@
         <v>-421794.3368999996</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -6486,14 +6226,10 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>188</v>
-      </c>
-      <c r="J177" t="n">
-        <v>188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
@@ -6526,2657 +6262,2225 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>188</v>
-      </c>
-      <c r="K178" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>187</v>
+      </c>
+      <c r="C179" t="n">
+        <v>187</v>
+      </c>
+      <c r="D179" t="n">
+        <v>187</v>
+      </c>
+      <c r="E179" t="n">
+        <v>187</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1347.9534</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>187</v>
+      </c>
+      <c r="C180" t="n">
+        <v>187</v>
+      </c>
+      <c r="D180" t="n">
+        <v>187</v>
+      </c>
+      <c r="E180" t="n">
+        <v>187</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2953.6399</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>187</v>
+      </c>
+      <c r="C181" t="n">
+        <v>187</v>
+      </c>
+      <c r="D181" t="n">
+        <v>187</v>
+      </c>
+      <c r="E181" t="n">
+        <v>187</v>
+      </c>
+      <c r="F181" t="n">
+        <v>342.9996</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>187</v>
+      </c>
+      <c r="C182" t="n">
+        <v>187</v>
+      </c>
+      <c r="D182" t="n">
+        <v>187</v>
+      </c>
+      <c r="E182" t="n">
+        <v>187</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1027.2035</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>187</v>
+      </c>
+      <c r="C183" t="n">
+        <v>187</v>
+      </c>
+      <c r="D183" t="n">
+        <v>187</v>
+      </c>
+      <c r="E183" t="n">
+        <v>187</v>
+      </c>
+      <c r="F183" t="n">
+        <v>3911.7498</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>187</v>
+      </c>
+      <c r="C184" t="n">
+        <v>187</v>
+      </c>
+      <c r="D184" t="n">
+        <v>187</v>
+      </c>
+      <c r="E184" t="n">
+        <v>187</v>
+      </c>
+      <c r="F184" t="n">
+        <v>780.476</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>187</v>
+      </c>
+      <c r="C185" t="n">
+        <v>187</v>
+      </c>
+      <c r="D185" t="n">
+        <v>187</v>
+      </c>
+      <c r="E185" t="n">
+        <v>187</v>
+      </c>
+      <c r="F185" t="n">
+        <v>5.9993</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>187</v>
+      </c>
+      <c r="C186" t="n">
+        <v>187</v>
+      </c>
+      <c r="D186" t="n">
+        <v>187</v>
+      </c>
+      <c r="E186" t="n">
+        <v>187</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2769</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>186</v>
+      </c>
+      <c r="C187" t="n">
+        <v>187</v>
+      </c>
+      <c r="D187" t="n">
+        <v>187</v>
+      </c>
+      <c r="E187" t="n">
+        <v>186</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3096.0258</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>187</v>
+      </c>
+      <c r="C188" t="n">
+        <v>187</v>
+      </c>
+      <c r="D188" t="n">
+        <v>187</v>
+      </c>
+      <c r="E188" t="n">
+        <v>187</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4663.3509</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>187</v>
+      </c>
+      <c r="C189" t="n">
+        <v>187</v>
+      </c>
+      <c r="D189" t="n">
+        <v>187</v>
+      </c>
+      <c r="E189" t="n">
+        <v>187</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1011.0365</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>187</v>
+      </c>
+      <c r="C190" t="n">
+        <v>187</v>
+      </c>
+      <c r="D190" t="n">
+        <v>187</v>
+      </c>
+      <c r="E190" t="n">
+        <v>187</v>
+      </c>
+      <c r="F190" t="n">
+        <v>585</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1412066.8888</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>187</v>
+      </c>
+      <c r="C191" t="n">
+        <v>188</v>
+      </c>
+      <c r="D191" t="n">
+        <v>188</v>
+      </c>
+      <c r="E191" t="n">
+        <v>184</v>
+      </c>
+      <c r="F191" t="n">
+        <v>18106.2161</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1393960.6727</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>186</v>
+      </c>
+      <c r="C192" t="n">
+        <v>186</v>
+      </c>
+      <c r="D192" t="n">
+        <v>186</v>
+      </c>
+      <c r="E192" t="n">
+        <v>186</v>
+      </c>
+      <c r="F192" t="n">
+        <v>954.6634</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1394915.336099999</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>186</v>
+      </c>
+      <c r="C193" t="n">
+        <v>186</v>
+      </c>
+      <c r="D193" t="n">
+        <v>186</v>
+      </c>
+      <c r="E193" t="n">
+        <v>186</v>
+      </c>
+      <c r="F193" t="n">
+        <v>349.2527</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1394915.336099999</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>186</v>
+      </c>
+      <c r="C194" t="n">
+        <v>186</v>
+      </c>
+      <c r="D194" t="n">
+        <v>186</v>
+      </c>
+      <c r="E194" t="n">
+        <v>186</v>
+      </c>
+      <c r="F194" t="n">
+        <v>985</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1394915.336099999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>187</v>
+      </c>
+      <c r="C195" t="n">
+        <v>185</v>
+      </c>
+      <c r="D195" t="n">
+        <v>187</v>
+      </c>
+      <c r="E195" t="n">
+        <v>185</v>
+      </c>
+      <c r="F195" t="n">
+        <v>28800.2359</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1423715.571999999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>188</v>
+      </c>
+      <c r="C196" t="n">
+        <v>188</v>
+      </c>
+      <c r="D196" t="n">
+        <v>188</v>
+      </c>
+      <c r="E196" t="n">
+        <v>188</v>
+      </c>
+      <c r="F196" t="n">
+        <v>60.5531</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1423655.0189</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>188</v>
+      </c>
+      <c r="C197" t="n">
+        <v>186</v>
+      </c>
+      <c r="D197" t="n">
+        <v>188</v>
+      </c>
+      <c r="E197" t="n">
+        <v>186</v>
+      </c>
+      <c r="F197" t="n">
+        <v>28900.8029</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1452555.8218</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>188</v>
+      </c>
+      <c r="C198" t="n">
+        <v>188</v>
+      </c>
+      <c r="D198" t="n">
+        <v>188</v>
+      </c>
+      <c r="E198" t="n">
+        <v>188</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3400</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1449155.8218</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>186</v>
+      </c>
+      <c r="C199" t="n">
+        <v>187</v>
+      </c>
+      <c r="D199" t="n">
+        <v>187</v>
+      </c>
+      <c r="E199" t="n">
+        <v>186</v>
+      </c>
+      <c r="F199" t="n">
+        <v>503.3971</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1449659.2189</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>188</v>
+      </c>
+      <c r="C200" t="n">
+        <v>188</v>
+      </c>
+      <c r="D200" t="n">
+        <v>188</v>
+      </c>
+      <c r="E200" t="n">
+        <v>188</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3316</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1446343.2189</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>188</v>
+      </c>
+      <c r="C201" t="n">
+        <v>189</v>
+      </c>
+      <c r="D201" t="n">
+        <v>189</v>
+      </c>
+      <c r="E201" t="n">
+        <v>188</v>
+      </c>
+      <c r="F201" t="n">
+        <v>8523.2199</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>188</v>
+      </c>
+      <c r="C202" t="n">
+        <v>189</v>
+      </c>
+      <c r="D202" t="n">
+        <v>189</v>
+      </c>
+      <c r="E202" t="n">
+        <v>188</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4038.305</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>189</v>
+      </c>
+      <c r="C203" t="n">
+        <v>189</v>
+      </c>
+      <c r="D203" t="n">
+        <v>189</v>
+      </c>
+      <c r="E203" t="n">
+        <v>189</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2.4232</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>189</v>
+      </c>
+      <c r="C204" t="n">
+        <v>189</v>
+      </c>
+      <c r="D204" t="n">
+        <v>189</v>
+      </c>
+      <c r="E204" t="n">
+        <v>189</v>
+      </c>
+      <c r="F204" t="n">
+        <v>4627.0373</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>189</v>
+      </c>
+      <c r="C205" t="n">
+        <v>189</v>
+      </c>
+      <c r="D205" t="n">
+        <v>189</v>
+      </c>
+      <c r="E205" t="n">
+        <v>189</v>
+      </c>
+      <c r="F205" t="n">
+        <v>3044.16</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>189</v>
+      </c>
+      <c r="D206" t="n">
+        <v>189</v>
+      </c>
+      <c r="E206" t="n">
+        <v>189</v>
+      </c>
+      <c r="F206" t="n">
+        <v>84.9008</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>189</v>
+      </c>
+      <c r="C207" t="n">
+        <v>189</v>
+      </c>
+      <c r="D207" t="n">
+        <v>189</v>
+      </c>
+      <c r="E207" t="n">
+        <v>189</v>
+      </c>
+      <c r="F207" t="n">
+        <v>13.9534</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1437819.999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>190</v>
+      </c>
+      <c r="C208" t="n">
+        <v>190</v>
+      </c>
+      <c r="D208" t="n">
+        <v>190</v>
+      </c>
+      <c r="E208" t="n">
+        <v>190</v>
+      </c>
+      <c r="F208" t="n">
+        <v>177.7926</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1437642.2064</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>190</v>
+      </c>
+      <c r="C209" t="n">
+        <v>190</v>
+      </c>
+      <c r="D209" t="n">
+        <v>190</v>
+      </c>
+      <c r="E209" t="n">
+        <v>190</v>
+      </c>
+      <c r="F209" t="n">
+        <v>75.563</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1437642.2064</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>191</v>
+      </c>
+      <c r="C210" t="n">
+        <v>191</v>
+      </c>
+      <c r="D210" t="n">
+        <v>191</v>
+      </c>
+      <c r="E210" t="n">
+        <v>191</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2941.6125</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1434700.5939</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>190</v>
+      </c>
+      <c r="C211" t="n">
+        <v>190</v>
+      </c>
+      <c r="D211" t="n">
+        <v>190</v>
+      </c>
+      <c r="E211" t="n">
+        <v>190</v>
+      </c>
+      <c r="F211" t="n">
+        <v>235.9364</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1434936.5303</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>190</v>
+      </c>
+      <c r="C212" t="n">
+        <v>190</v>
+      </c>
+      <c r="D212" t="n">
+        <v>190</v>
+      </c>
+      <c r="E212" t="n">
+        <v>190</v>
+      </c>
+      <c r="F212" t="n">
+        <v>397.5473</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1434936.5303</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>191</v>
+      </c>
+      <c r="C213" t="n">
+        <v>191</v>
+      </c>
+      <c r="D213" t="n">
+        <v>191</v>
+      </c>
+      <c r="E213" t="n">
+        <v>191</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1434935.5303</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>191</v>
+      </c>
+      <c r="C214" t="n">
+        <v>191</v>
+      </c>
+      <c r="D214" t="n">
+        <v>191</v>
+      </c>
+      <c r="E214" t="n">
+        <v>191</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5558.1413</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1434935.5303</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>191</v>
+      </c>
+      <c r="C215" t="n">
+        <v>191</v>
+      </c>
+      <c r="D215" t="n">
+        <v>191</v>
+      </c>
+      <c r="E215" t="n">
+        <v>191</v>
+      </c>
+      <c r="F215" t="n">
+        <v>7804.0497</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1434935.5303</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>189</v>
+      </c>
+      <c r="C216" t="n">
+        <v>191</v>
+      </c>
+      <c r="D216" t="n">
+        <v>191</v>
+      </c>
+      <c r="E216" t="n">
+        <v>189</v>
+      </c>
+      <c r="F216" t="n">
+        <v>5135.8185</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1434935.5303</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>190</v>
+      </c>
+      <c r="C217" t="n">
+        <v>190</v>
+      </c>
+      <c r="D217" t="n">
+        <v>190</v>
+      </c>
+      <c r="E217" t="n">
+        <v>190</v>
+      </c>
+      <c r="F217" t="n">
+        <v>231.0187</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1435166.548999999</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>189</v>
+      </c>
+      <c r="C218" t="n">
+        <v>189</v>
+      </c>
+      <c r="D218" t="n">
+        <v>189</v>
+      </c>
+      <c r="E218" t="n">
+        <v>189</v>
+      </c>
+      <c r="F218" t="n">
+        <v>6691.1874</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1441857.736399999</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>191</v>
+      </c>
+      <c r="C219" t="n">
+        <v>191</v>
+      </c>
+      <c r="D219" t="n">
+        <v>191</v>
+      </c>
+      <c r="E219" t="n">
+        <v>191</v>
+      </c>
+      <c r="F219" t="n">
+        <v>8882.983899999999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1432974.752499999</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>189</v>
+      </c>
+      <c r="C220" t="n">
+        <v>189</v>
+      </c>
+      <c r="D220" t="n">
+        <v>189</v>
+      </c>
+      <c r="E220" t="n">
+        <v>189</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2136.79</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1435111.542499999</v>
+      </c>
+      <c r="H220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>190</v>
+      </c>
+      <c r="C221" t="n">
+        <v>190</v>
+      </c>
+      <c r="D221" t="n">
+        <v>190</v>
+      </c>
+      <c r="E221" t="n">
+        <v>190</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1435110.542499999</v>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>189</v>
+      </c>
+      <c r="C222" t="n">
+        <v>189</v>
+      </c>
+      <c r="D222" t="n">
+        <v>189</v>
+      </c>
+      <c r="E222" t="n">
+        <v>189</v>
+      </c>
+      <c r="F222" t="n">
+        <v>901.1508</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1436011.693299999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>189</v>
+      </c>
+      <c r="C223" t="n">
+        <v>189</v>
+      </c>
+      <c r="D223" t="n">
+        <v>189</v>
+      </c>
+      <c r="E223" t="n">
+        <v>189</v>
+      </c>
+      <c r="F223" t="n">
+        <v>2550</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1436011.693299999</v>
+      </c>
+      <c r="H223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>189</v>
+      </c>
+      <c r="C224" t="n">
+        <v>189</v>
+      </c>
+      <c r="D224" t="n">
+        <v>189</v>
+      </c>
+      <c r="E224" t="n">
+        <v>189</v>
+      </c>
+      <c r="F224" t="n">
+        <v>3550</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1436011.693299999</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>188</v>
+      </c>
+      <c r="C225" t="n">
+        <v>188</v>
+      </c>
+      <c r="D225" t="n">
+        <v>188</v>
+      </c>
+      <c r="E225" t="n">
+        <v>187</v>
+      </c>
+      <c r="F225" t="n">
+        <v>6196.2395</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1442207.932799999</v>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>188</v>
+      </c>
+      <c r="C226" t="n">
+        <v>188</v>
+      </c>
+      <c r="D226" t="n">
+        <v>188</v>
+      </c>
+      <c r="E226" t="n">
+        <v>188</v>
+      </c>
+      <c r="F226" t="n">
+        <v>195.6125</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1442207.932799999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>188</v>
+      </c>
+      <c r="C227" t="n">
+        <v>188</v>
+      </c>
+      <c r="D227" t="n">
+        <v>188</v>
+      </c>
+      <c r="E227" t="n">
+        <v>188</v>
+      </c>
+      <c r="F227" t="n">
+        <v>537.6147</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1442207.932799999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>188</v>
+      </c>
+      <c r="C228" t="n">
+        <v>188</v>
+      </c>
+      <c r="D228" t="n">
+        <v>188</v>
+      </c>
+      <c r="E228" t="n">
+        <v>188</v>
+      </c>
+      <c r="F228" t="n">
+        <v>692.9382000000001</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1442207.932799999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>187</v>
+      </c>
+      <c r="C229" t="n">
+        <v>187</v>
+      </c>
+      <c r="D229" t="n">
+        <v>187</v>
+      </c>
+      <c r="E229" t="n">
+        <v>187</v>
+      </c>
+      <c r="F229" t="n">
+        <v>786.7415</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1442994.674299999</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>188</v>
+      </c>
+      <c r="C230" t="n">
+        <v>188</v>
+      </c>
+      <c r="D230" t="n">
+        <v>188</v>
+      </c>
+      <c r="E230" t="n">
+        <v>188</v>
+      </c>
+      <c r="F230" t="n">
+        <v>169.7649</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1442824.909399999</v>
+      </c>
+      <c r="H230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>188</v>
+      </c>
+      <c r="C231" t="n">
+        <v>188</v>
+      </c>
+      <c r="D231" t="n">
+        <v>188</v>
+      </c>
+      <c r="E231" t="n">
+        <v>188</v>
+      </c>
+      <c r="F231" t="n">
+        <v>13</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1442824.909399999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>188</v>
+      </c>
+      <c r="C232" t="n">
+        <v>188</v>
+      </c>
+      <c r="D232" t="n">
+        <v>188</v>
+      </c>
+      <c r="E232" t="n">
+        <v>188</v>
+      </c>
+      <c r="F232" t="n">
+        <v>3050</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1442824.909399999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>187</v>
+      </c>
+      <c r="C233" t="n">
+        <v>187</v>
+      </c>
+      <c r="D233" t="n">
+        <v>187</v>
+      </c>
+      <c r="E233" t="n">
+        <v>187</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1468.4558</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1444293.365199999</v>
+      </c>
+      <c r="H233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>187</v>
+      </c>
+      <c r="C234" t="n">
+        <v>187</v>
+      </c>
+      <c r="D234" t="n">
+        <v>187</v>
+      </c>
+      <c r="E234" t="n">
+        <v>187</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2934.2584</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1444293.365199999</v>
+      </c>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>188</v>
+      </c>
+      <c r="C235" t="n">
+        <v>188</v>
+      </c>
+      <c r="D235" t="n">
+        <v>188</v>
+      </c>
+      <c r="E235" t="n">
+        <v>188</v>
+      </c>
+      <c r="F235" t="n">
+        <v>293.4739</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-1443999.891299999</v>
+      </c>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>188</v>
+      </c>
+      <c r="C236" t="n">
+        <v>188</v>
+      </c>
+      <c r="D236" t="n">
+        <v>188</v>
+      </c>
+      <c r="E236" t="n">
+        <v>188</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1315.4026</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-1443999.891299999</v>
+      </c>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>188</v>
+      </c>
+      <c r="C237" t="n">
+        <v>188</v>
+      </c>
+      <c r="D237" t="n">
+        <v>188</v>
+      </c>
+      <c r="E237" t="n">
+        <v>188</v>
+      </c>
+      <c r="F237" t="n">
+        <v>176.8253</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-1443999.891299999</v>
+      </c>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>188</v>
+      </c>
+      <c r="C238" t="n">
+        <v>188</v>
+      </c>
+      <c r="D238" t="n">
+        <v>188</v>
+      </c>
+      <c r="E238" t="n">
+        <v>188</v>
+      </c>
+      <c r="F238" t="n">
+        <v>600</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-1443999.891299999</v>
+      </c>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>188</v>
+      </c>
+      <c r="C239" t="n">
+        <v>188</v>
+      </c>
+      <c r="D239" t="n">
+        <v>188</v>
+      </c>
+      <c r="E239" t="n">
+        <v>188</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2700</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-1443999.891299999</v>
+      </c>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>187</v>
+      </c>
+      <c r="C240" t="n">
+        <v>185</v>
+      </c>
+      <c r="D240" t="n">
+        <v>187</v>
+      </c>
+      <c r="E240" t="n">
+        <v>185</v>
+      </c>
+      <c r="F240" t="n">
+        <v>68237.6752</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-1512237.566499999</v>
+      </c>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>187</v>
+      </c>
+      <c r="C241" t="n">
+        <v>186</v>
+      </c>
+      <c r="D241" t="n">
+        <v>187</v>
+      </c>
+      <c r="E241" t="n">
+        <v>186</v>
+      </c>
+      <c r="F241" t="n">
+        <v>9029.0749</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-1503208.491599999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>186</v>
+      </c>
+      <c r="C242" t="n">
+        <v>186</v>
+      </c>
+      <c r="D242" t="n">
+        <v>186</v>
+      </c>
+      <c r="E242" t="n">
+        <v>186</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1.5021</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-1503208.491599999</v>
+      </c>
+      <c r="H242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>187</v>
+      </c>
+      <c r="C243" t="n">
+        <v>187</v>
+      </c>
+      <c r="D243" t="n">
+        <v>187</v>
+      </c>
+      <c r="E243" t="n">
+        <v>187</v>
+      </c>
+      <c r="F243" t="n">
+        <v>526.3157</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-1502682.175899999</v>
+      </c>
+      <c r="H243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>186</v>
+      </c>
+      <c r="C244" t="n">
+        <v>186</v>
+      </c>
+      <c r="D244" t="n">
+        <v>186</v>
+      </c>
+      <c r="E244" t="n">
+        <v>186</v>
+      </c>
+      <c r="F244" t="n">
+        <v>303.3439</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-1502985.519799999</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>186</v>
+      </c>
+      <c r="C245" t="n">
+        <v>187</v>
+      </c>
+      <c r="D245" t="n">
+        <v>187</v>
+      </c>
+      <c r="E245" t="n">
+        <v>186</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1669</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-1501316.519799999</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>186</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>187</v>
-      </c>
-      <c r="C179" t="n">
-        <v>187</v>
-      </c>
-      <c r="D179" t="n">
-        <v>187</v>
-      </c>
-      <c r="E179" t="n">
-        <v>187</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1347.9534</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>187</v>
-      </c>
-      <c r="J179" t="n">
-        <v>188</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>187</v>
-      </c>
-      <c r="C180" t="n">
-        <v>187</v>
-      </c>
-      <c r="D180" t="n">
-        <v>187</v>
-      </c>
-      <c r="E180" t="n">
-        <v>187</v>
-      </c>
-      <c r="F180" t="n">
-        <v>2953.6399</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>187</v>
-      </c>
-      <c r="J180" t="n">
-        <v>188</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>187</v>
-      </c>
-      <c r="C181" t="n">
-        <v>187</v>
-      </c>
-      <c r="D181" t="n">
-        <v>187</v>
-      </c>
-      <c r="E181" t="n">
-        <v>187</v>
-      </c>
-      <c r="F181" t="n">
-        <v>342.9996</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>187</v>
-      </c>
-      <c r="J181" t="n">
-        <v>188</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>187</v>
-      </c>
-      <c r="C182" t="n">
-        <v>187</v>
-      </c>
-      <c r="D182" t="n">
-        <v>187</v>
-      </c>
-      <c r="E182" t="n">
-        <v>187</v>
-      </c>
-      <c r="F182" t="n">
-        <v>1027.2035</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>187</v>
-      </c>
-      <c r="J182" t="n">
-        <v>188</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>187</v>
-      </c>
-      <c r="C183" t="n">
-        <v>187</v>
-      </c>
-      <c r="D183" t="n">
-        <v>187</v>
-      </c>
-      <c r="E183" t="n">
-        <v>187</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3911.7498</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>188</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>187</v>
-      </c>
-      <c r="C184" t="n">
-        <v>187</v>
-      </c>
-      <c r="D184" t="n">
-        <v>187</v>
-      </c>
-      <c r="E184" t="n">
-        <v>187</v>
-      </c>
-      <c r="F184" t="n">
-        <v>780.476</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>188</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>187</v>
-      </c>
-      <c r="C185" t="n">
-        <v>187</v>
-      </c>
-      <c r="D185" t="n">
-        <v>187</v>
-      </c>
-      <c r="E185" t="n">
-        <v>187</v>
-      </c>
-      <c r="F185" t="n">
-        <v>5.9993</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>188</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>187</v>
-      </c>
-      <c r="C186" t="n">
-        <v>187</v>
-      </c>
-      <c r="D186" t="n">
-        <v>187</v>
-      </c>
-      <c r="E186" t="n">
-        <v>187</v>
-      </c>
-      <c r="F186" t="n">
-        <v>2769</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>188</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>186</v>
-      </c>
-      <c r="C187" t="n">
-        <v>187</v>
-      </c>
-      <c r="D187" t="n">
-        <v>187</v>
-      </c>
-      <c r="E187" t="n">
-        <v>186</v>
-      </c>
-      <c r="F187" t="n">
-        <v>3096.0258</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>188</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>187</v>
-      </c>
-      <c r="C188" t="n">
-        <v>187</v>
-      </c>
-      <c r="D188" t="n">
-        <v>187</v>
-      </c>
-      <c r="E188" t="n">
-        <v>187</v>
-      </c>
-      <c r="F188" t="n">
-        <v>4663.3509</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>187</v>
-      </c>
-      <c r="J188" t="n">
-        <v>188</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>187</v>
-      </c>
-      <c r="C189" t="n">
-        <v>187</v>
-      </c>
-      <c r="D189" t="n">
-        <v>187</v>
-      </c>
-      <c r="E189" t="n">
-        <v>187</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1011.0365</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>187</v>
-      </c>
-      <c r="J189" t="n">
-        <v>188</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>187</v>
-      </c>
-      <c r="C190" t="n">
-        <v>187</v>
-      </c>
-      <c r="D190" t="n">
-        <v>187</v>
-      </c>
-      <c r="E190" t="n">
-        <v>187</v>
-      </c>
-      <c r="F190" t="n">
-        <v>585</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1412066.8888</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>188</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>187</v>
-      </c>
-      <c r="C191" t="n">
-        <v>188</v>
-      </c>
-      <c r="D191" t="n">
-        <v>188</v>
-      </c>
-      <c r="E191" t="n">
-        <v>184</v>
-      </c>
-      <c r="F191" t="n">
-        <v>18106.2161</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1393960.6727</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>187</v>
-      </c>
-      <c r="J191" t="n">
-        <v>188</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>186</v>
-      </c>
-      <c r="C192" t="n">
-        <v>186</v>
-      </c>
-      <c r="D192" t="n">
-        <v>186</v>
-      </c>
-      <c r="E192" t="n">
-        <v>186</v>
-      </c>
-      <c r="F192" t="n">
-        <v>954.6634</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1394915.336099999</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>188</v>
-      </c>
-      <c r="J192" t="n">
-        <v>188</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>186</v>
-      </c>
-      <c r="C193" t="n">
-        <v>186</v>
-      </c>
-      <c r="D193" t="n">
-        <v>186</v>
-      </c>
-      <c r="E193" t="n">
-        <v>186</v>
-      </c>
-      <c r="F193" t="n">
-        <v>349.2527</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1394915.336099999</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>186</v>
-      </c>
-      <c r="J193" t="n">
-        <v>188</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>186</v>
-      </c>
-      <c r="C194" t="n">
-        <v>186</v>
-      </c>
-      <c r="D194" t="n">
-        <v>186</v>
-      </c>
-      <c r="E194" t="n">
-        <v>186</v>
-      </c>
-      <c r="F194" t="n">
-        <v>985</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1394915.336099999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>186</v>
-      </c>
-      <c r="J194" t="n">
-        <v>188</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>187</v>
-      </c>
-      <c r="C195" t="n">
-        <v>185</v>
-      </c>
-      <c r="D195" t="n">
-        <v>187</v>
-      </c>
-      <c r="E195" t="n">
-        <v>185</v>
-      </c>
-      <c r="F195" t="n">
-        <v>28800.2359</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1423715.571999999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>186</v>
-      </c>
-      <c r="J195" t="n">
-        <v>188</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>188</v>
-      </c>
-      <c r="C196" t="n">
-        <v>188</v>
-      </c>
-      <c r="D196" t="n">
-        <v>188</v>
-      </c>
-      <c r="E196" t="n">
-        <v>188</v>
-      </c>
-      <c r="F196" t="n">
-        <v>60.5531</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1423655.0189</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>188</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>188</v>
-      </c>
-      <c r="C197" t="n">
-        <v>186</v>
-      </c>
-      <c r="D197" t="n">
-        <v>188</v>
-      </c>
-      <c r="E197" t="n">
-        <v>186</v>
-      </c>
-      <c r="F197" t="n">
-        <v>28900.8029</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1452555.8218</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>188</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>188</v>
-      </c>
-      <c r="C198" t="n">
-        <v>188</v>
-      </c>
-      <c r="D198" t="n">
-        <v>188</v>
-      </c>
-      <c r="E198" t="n">
-        <v>188</v>
-      </c>
-      <c r="F198" t="n">
-        <v>3400</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1449155.8218</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>188</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>186</v>
-      </c>
-      <c r="C199" t="n">
-        <v>187</v>
-      </c>
-      <c r="D199" t="n">
-        <v>187</v>
-      </c>
-      <c r="E199" t="n">
-        <v>186</v>
-      </c>
-      <c r="F199" t="n">
-        <v>503.3971</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1449659.2189</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>188</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>188</v>
-      </c>
-      <c r="C200" t="n">
-        <v>188</v>
-      </c>
-      <c r="D200" t="n">
-        <v>188</v>
-      </c>
-      <c r="E200" t="n">
-        <v>188</v>
-      </c>
-      <c r="F200" t="n">
-        <v>3316</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1446343.2189</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>188</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>188</v>
-      </c>
-      <c r="C201" t="n">
-        <v>189</v>
-      </c>
-      <c r="D201" t="n">
-        <v>189</v>
-      </c>
-      <c r="E201" t="n">
-        <v>188</v>
-      </c>
-      <c r="F201" t="n">
-        <v>8523.2199</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>188</v>
-      </c>
-      <c r="J201" t="n">
-        <v>188</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>188</v>
-      </c>
-      <c r="C202" t="n">
-        <v>189</v>
-      </c>
-      <c r="D202" t="n">
-        <v>189</v>
-      </c>
-      <c r="E202" t="n">
-        <v>188</v>
-      </c>
-      <c r="F202" t="n">
-        <v>4038.305</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>188</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>189</v>
-      </c>
-      <c r="C203" t="n">
-        <v>189</v>
-      </c>
-      <c r="D203" t="n">
-        <v>189</v>
-      </c>
-      <c r="E203" t="n">
-        <v>189</v>
-      </c>
-      <c r="F203" t="n">
-        <v>2.4232</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>188</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>189</v>
-      </c>
-      <c r="C204" t="n">
-        <v>189</v>
-      </c>
-      <c r="D204" t="n">
-        <v>189</v>
-      </c>
-      <c r="E204" t="n">
-        <v>189</v>
-      </c>
-      <c r="F204" t="n">
-        <v>4627.0373</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>188</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>189</v>
-      </c>
-      <c r="C205" t="n">
-        <v>189</v>
-      </c>
-      <c r="D205" t="n">
-        <v>189</v>
-      </c>
-      <c r="E205" t="n">
-        <v>189</v>
-      </c>
-      <c r="F205" t="n">
-        <v>3044.16</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>188</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>189</v>
-      </c>
-      <c r="D206" t="n">
-        <v>189</v>
-      </c>
-      <c r="E206" t="n">
-        <v>189</v>
-      </c>
-      <c r="F206" t="n">
-        <v>84.9008</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>188</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>189</v>
-      </c>
-      <c r="C207" t="n">
-        <v>189</v>
-      </c>
-      <c r="D207" t="n">
-        <v>189</v>
-      </c>
-      <c r="E207" t="n">
-        <v>189</v>
-      </c>
-      <c r="F207" t="n">
-        <v>13.9534</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1437819.999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>188</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>190</v>
-      </c>
-      <c r="C208" t="n">
-        <v>190</v>
-      </c>
-      <c r="D208" t="n">
-        <v>190</v>
-      </c>
-      <c r="E208" t="n">
-        <v>190</v>
-      </c>
-      <c r="F208" t="n">
-        <v>177.7926</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1437642.2064</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>188</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>190</v>
-      </c>
-      <c r="C209" t="n">
-        <v>190</v>
-      </c>
-      <c r="D209" t="n">
-        <v>190</v>
-      </c>
-      <c r="E209" t="n">
-        <v>190</v>
-      </c>
-      <c r="F209" t="n">
-        <v>75.563</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1437642.2064</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>188</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>191</v>
-      </c>
-      <c r="C210" t="n">
-        <v>191</v>
-      </c>
-      <c r="D210" t="n">
-        <v>191</v>
-      </c>
-      <c r="E210" t="n">
-        <v>191</v>
-      </c>
-      <c r="F210" t="n">
-        <v>2941.6125</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1434700.5939</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>188</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>190</v>
-      </c>
-      <c r="C211" t="n">
-        <v>190</v>
-      </c>
-      <c r="D211" t="n">
-        <v>190</v>
-      </c>
-      <c r="E211" t="n">
-        <v>190</v>
-      </c>
-      <c r="F211" t="n">
-        <v>235.9364</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1434936.5303</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>188</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>190</v>
-      </c>
-      <c r="C212" t="n">
-        <v>190</v>
-      </c>
-      <c r="D212" t="n">
-        <v>190</v>
-      </c>
-      <c r="E212" t="n">
-        <v>190</v>
-      </c>
-      <c r="F212" t="n">
-        <v>397.5473</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1434936.5303</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>188</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>191</v>
-      </c>
-      <c r="C213" t="n">
-        <v>191</v>
-      </c>
-      <c r="D213" t="n">
-        <v>191</v>
-      </c>
-      <c r="E213" t="n">
-        <v>191</v>
-      </c>
-      <c r="F213" t="n">
-        <v>1</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1434935.5303</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>188</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>191</v>
-      </c>
-      <c r="C214" t="n">
-        <v>191</v>
-      </c>
-      <c r="D214" t="n">
-        <v>191</v>
-      </c>
-      <c r="E214" t="n">
-        <v>191</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5558.1413</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1434935.5303</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>188</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>191</v>
-      </c>
-      <c r="C215" t="n">
-        <v>191</v>
-      </c>
-      <c r="D215" t="n">
-        <v>191</v>
-      </c>
-      <c r="E215" t="n">
-        <v>191</v>
-      </c>
-      <c r="F215" t="n">
-        <v>7804.0497</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1434935.5303</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>188</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>189</v>
-      </c>
-      <c r="C216" t="n">
-        <v>191</v>
-      </c>
-      <c r="D216" t="n">
-        <v>191</v>
-      </c>
-      <c r="E216" t="n">
-        <v>189</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5135.8185</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1434935.5303</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>188</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>190</v>
-      </c>
-      <c r="C217" t="n">
-        <v>190</v>
-      </c>
-      <c r="D217" t="n">
-        <v>190</v>
-      </c>
-      <c r="E217" t="n">
-        <v>190</v>
-      </c>
-      <c r="F217" t="n">
-        <v>231.0187</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1435166.548999999</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>188</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>189</v>
-      </c>
-      <c r="C218" t="n">
-        <v>189</v>
-      </c>
-      <c r="D218" t="n">
-        <v>189</v>
-      </c>
-      <c r="E218" t="n">
-        <v>189</v>
-      </c>
-      <c r="F218" t="n">
-        <v>6691.1874</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1441857.736399999</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>188</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>191</v>
-      </c>
-      <c r="C219" t="n">
-        <v>191</v>
-      </c>
-      <c r="D219" t="n">
-        <v>191</v>
-      </c>
-      <c r="E219" t="n">
-        <v>191</v>
-      </c>
-      <c r="F219" t="n">
-        <v>8882.983899999999</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1432974.752499999</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>188</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>189</v>
-      </c>
-      <c r="C220" t="n">
-        <v>189</v>
-      </c>
-      <c r="D220" t="n">
-        <v>189</v>
-      </c>
-      <c r="E220" t="n">
-        <v>189</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2136.79</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1435111.542499999</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>188</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>190</v>
-      </c>
-      <c r="C221" t="n">
-        <v>190</v>
-      </c>
-      <c r="D221" t="n">
-        <v>190</v>
-      </c>
-      <c r="E221" t="n">
-        <v>190</v>
-      </c>
-      <c r="F221" t="n">
-        <v>1</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1435110.542499999</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>188</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>189</v>
-      </c>
-      <c r="C222" t="n">
-        <v>189</v>
-      </c>
-      <c r="D222" t="n">
-        <v>189</v>
-      </c>
-      <c r="E222" t="n">
-        <v>189</v>
-      </c>
-      <c r="F222" t="n">
-        <v>901.1508</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1436011.693299999</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>188</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>189</v>
-      </c>
-      <c r="C223" t="n">
-        <v>189</v>
-      </c>
-      <c r="D223" t="n">
-        <v>189</v>
-      </c>
-      <c r="E223" t="n">
-        <v>189</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2550</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1436011.693299999</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>188</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>189</v>
-      </c>
-      <c r="C224" t="n">
-        <v>189</v>
-      </c>
-      <c r="D224" t="n">
-        <v>189</v>
-      </c>
-      <c r="E224" t="n">
-        <v>189</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3550</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1436011.693299999</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>188</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>188</v>
-      </c>
-      <c r="C225" t="n">
-        <v>188</v>
-      </c>
-      <c r="D225" t="n">
-        <v>188</v>
-      </c>
-      <c r="E225" t="n">
-        <v>187</v>
-      </c>
-      <c r="F225" t="n">
-        <v>6196.2395</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1442207.932799999</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>188</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>188</v>
-      </c>
-      <c r="C226" t="n">
-        <v>188</v>
-      </c>
-      <c r="D226" t="n">
-        <v>188</v>
-      </c>
-      <c r="E226" t="n">
-        <v>188</v>
-      </c>
-      <c r="F226" t="n">
-        <v>195.6125</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1442207.932799999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>188</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>188</v>
-      </c>
-      <c r="C227" t="n">
-        <v>188</v>
-      </c>
-      <c r="D227" t="n">
-        <v>188</v>
-      </c>
-      <c r="E227" t="n">
-        <v>188</v>
-      </c>
-      <c r="F227" t="n">
-        <v>537.6147</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1442207.932799999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>188</v>
-      </c>
-      <c r="J227" t="n">
-        <v>188</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>188</v>
-      </c>
-      <c r="C228" t="n">
-        <v>188</v>
-      </c>
-      <c r="D228" t="n">
-        <v>188</v>
-      </c>
-      <c r="E228" t="n">
-        <v>188</v>
-      </c>
-      <c r="F228" t="n">
-        <v>692.9382000000001</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1442207.932799999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>188</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>187</v>
-      </c>
-      <c r="C229" t="n">
-        <v>187</v>
-      </c>
-      <c r="D229" t="n">
-        <v>187</v>
-      </c>
-      <c r="E229" t="n">
-        <v>187</v>
-      </c>
-      <c r="F229" t="n">
-        <v>786.7415</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1442994.674299999</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>188</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>188</v>
-      </c>
-      <c r="C230" t="n">
-        <v>188</v>
-      </c>
-      <c r="D230" t="n">
-        <v>188</v>
-      </c>
-      <c r="E230" t="n">
-        <v>188</v>
-      </c>
-      <c r="F230" t="n">
-        <v>169.7649</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1442824.909399999</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>188</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>188</v>
-      </c>
-      <c r="C231" t="n">
-        <v>188</v>
-      </c>
-      <c r="D231" t="n">
-        <v>188</v>
-      </c>
-      <c r="E231" t="n">
-        <v>188</v>
-      </c>
-      <c r="F231" t="n">
-        <v>13</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1442824.909399999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>188</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>188</v>
-      </c>
-      <c r="C232" t="n">
-        <v>188</v>
-      </c>
-      <c r="D232" t="n">
-        <v>188</v>
-      </c>
-      <c r="E232" t="n">
-        <v>188</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3050</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1442824.909399999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>188</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>187</v>
-      </c>
-      <c r="C233" t="n">
-        <v>187</v>
-      </c>
-      <c r="D233" t="n">
-        <v>187</v>
-      </c>
-      <c r="E233" t="n">
-        <v>187</v>
-      </c>
-      <c r="F233" t="n">
-        <v>1468.4558</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1444293.365199999</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>188</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>187</v>
-      </c>
-      <c r="C234" t="n">
-        <v>187</v>
-      </c>
-      <c r="D234" t="n">
-        <v>187</v>
-      </c>
-      <c r="E234" t="n">
-        <v>187</v>
-      </c>
-      <c r="F234" t="n">
-        <v>2934.2584</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1444293.365199999</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>188</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>188</v>
-      </c>
-      <c r="C235" t="n">
-        <v>188</v>
-      </c>
-      <c r="D235" t="n">
-        <v>188</v>
-      </c>
-      <c r="E235" t="n">
-        <v>188</v>
-      </c>
-      <c r="F235" t="n">
-        <v>293.4739</v>
-      </c>
-      <c r="G235" t="n">
-        <v>-1443999.891299999</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>188</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>188</v>
-      </c>
-      <c r="C236" t="n">
-        <v>188</v>
-      </c>
-      <c r="D236" t="n">
-        <v>188</v>
-      </c>
-      <c r="E236" t="n">
-        <v>188</v>
-      </c>
-      <c r="F236" t="n">
-        <v>1315.4026</v>
-      </c>
-      <c r="G236" t="n">
-        <v>-1443999.891299999</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>188</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>188</v>
-      </c>
-      <c r="C237" t="n">
-        <v>188</v>
-      </c>
-      <c r="D237" t="n">
-        <v>188</v>
-      </c>
-      <c r="E237" t="n">
-        <v>188</v>
-      </c>
-      <c r="F237" t="n">
-        <v>176.8253</v>
-      </c>
-      <c r="G237" t="n">
-        <v>-1443999.891299999</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>188</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>188</v>
-      </c>
-      <c r="C238" t="n">
-        <v>188</v>
-      </c>
-      <c r="D238" t="n">
-        <v>188</v>
-      </c>
-      <c r="E238" t="n">
-        <v>188</v>
-      </c>
-      <c r="F238" t="n">
-        <v>600</v>
-      </c>
-      <c r="G238" t="n">
-        <v>-1443999.891299999</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>188</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>188</v>
-      </c>
-      <c r="C239" t="n">
-        <v>188</v>
-      </c>
-      <c r="D239" t="n">
-        <v>188</v>
-      </c>
-      <c r="E239" t="n">
-        <v>188</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2700</v>
-      </c>
-      <c r="G239" t="n">
-        <v>-1443999.891299999</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>188</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>187</v>
-      </c>
-      <c r="C240" t="n">
-        <v>185</v>
-      </c>
-      <c r="D240" t="n">
-        <v>187</v>
-      </c>
-      <c r="E240" t="n">
-        <v>185</v>
-      </c>
-      <c r="F240" t="n">
-        <v>68237.6752</v>
-      </c>
-      <c r="G240" t="n">
-        <v>-1512237.566499999</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>188</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>187</v>
-      </c>
-      <c r="C241" t="n">
-        <v>186</v>
-      </c>
-      <c r="D241" t="n">
-        <v>187</v>
-      </c>
-      <c r="E241" t="n">
-        <v>186</v>
-      </c>
-      <c r="F241" t="n">
-        <v>9029.0749</v>
-      </c>
-      <c r="G241" t="n">
-        <v>-1503208.491599999</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>188</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>186</v>
-      </c>
-      <c r="C242" t="n">
-        <v>186</v>
-      </c>
-      <c r="D242" t="n">
-        <v>186</v>
-      </c>
-      <c r="E242" t="n">
-        <v>186</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1.5021</v>
-      </c>
-      <c r="G242" t="n">
-        <v>-1503208.491599999</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>188</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>187</v>
-      </c>
-      <c r="C243" t="n">
-        <v>187</v>
-      </c>
-      <c r="D243" t="n">
-        <v>187</v>
-      </c>
-      <c r="E243" t="n">
-        <v>187</v>
-      </c>
-      <c r="F243" t="n">
-        <v>526.3157</v>
-      </c>
-      <c r="G243" t="n">
-        <v>-1502682.175899999</v>
-      </c>
-      <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>186</v>
-      </c>
-      <c r="J243" t="n">
-        <v>188</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>186</v>
-      </c>
-      <c r="C244" t="n">
-        <v>186</v>
-      </c>
-      <c r="D244" t="n">
-        <v>186</v>
-      </c>
-      <c r="E244" t="n">
-        <v>186</v>
-      </c>
-      <c r="F244" t="n">
-        <v>303.3439</v>
-      </c>
-      <c r="G244" t="n">
-        <v>-1502985.519799999</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>188</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>186</v>
-      </c>
-      <c r="C245" t="n">
-        <v>187</v>
-      </c>
-      <c r="D245" t="n">
-        <v>187</v>
-      </c>
-      <c r="E245" t="n">
-        <v>186</v>
-      </c>
-      <c r="F245" t="n">
-        <v>1669</v>
-      </c>
-      <c r="G245" t="n">
-        <v>-1501316.519799999</v>
-      </c>
-      <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>186</v>
-      </c>
-      <c r="J245" t="n">
-        <v>188</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9208,9 +8512,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>188</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9247,9 +8549,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>188</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9283,12 +8583,12 @@
         <v>-1500316.519799999</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>189</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9325,9 +8625,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>188</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9364,9 +8662,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>188</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,9 +8699,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>188</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,9 +8736,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>188</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9481,9 +8773,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>188</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,9 +8810,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>188</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9559,9 +8847,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>188</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9598,9 +8884,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>188</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,9 +8921,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>188</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,12 +8955,12 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>188</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9715,9 +8997,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>188</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9754,9 +9034,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>188</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9790,12 +9068,12 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>188</v>
+      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9832,9 +9110,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>188</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9868,12 +9144,12 @@
         <v>-1530855.623899999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>187</v>
+      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9907,12 +9183,12 @@
         <v>-1525188.553899999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>186</v>
+      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9946,12 +9222,12 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>187</v>
+      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9985,12 +9261,12 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>188</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>188</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10027,9 +9303,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>188</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,9 +9340,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>188</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10105,9 +9377,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>188</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10144,9 +9414,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>188</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10183,9 +9451,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>188</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10222,9 +9488,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>188</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10261,9 +9525,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>188</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10300,9 +9562,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>188</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10339,9 +9599,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>188</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,9 +9636,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>188</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10417,9 +9673,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>188</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,20 +9707,16 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>188</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -10492,17 +9742,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>188</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10531,17 +9775,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>188</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10570,17 +9808,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>188</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10609,17 +9841,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>188</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10648,17 +9874,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>188</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10687,17 +9907,11 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>188</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10729,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>188</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10768,14 +9976,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>188</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10807,14 +10009,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>188</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10846,14 +10042,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>188</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10885,14 +10075,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>188</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10924,14 +10108,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>188</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10960,17 +10138,11 @@
         <v>-1531218.306299999</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>188</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10999,17 +10171,11 @@
         <v>-1530997.937299999</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>188</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11038,17 +10204,11 @@
         <v>-1516100.838399999</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>188</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11077,17 +10237,11 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>188</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11116,17 +10270,11 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>188</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11155,17 +10303,11 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>188</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11194,17 +10336,11 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>188</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11236,14 +10372,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>188</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11275,14 +10405,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>188</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11311,17 +10435,11 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>188</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11353,14 +10471,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>188</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11392,14 +10504,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>188</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11431,14 +10537,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>188</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11470,14 +10570,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>188</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11509,14 +10603,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>188</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11548,14 +10636,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>188</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11587,14 +10669,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>188</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11626,14 +10702,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>188</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11665,14 +10735,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>188</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11704,14 +10768,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>188</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11743,14 +10801,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>188</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11782,14 +10834,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>188</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11821,14 +10867,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>188</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11860,14 +10900,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>188</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11899,14 +10933,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>188</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11938,14 +10966,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>188</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11977,14 +10999,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>188</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12016,14 +11032,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>188</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12055,14 +11065,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>188</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12094,14 +11098,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>188</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12133,14 +11131,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>188</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12172,14 +11164,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>188</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12211,14 +11197,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>188</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12250,14 +11230,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>188</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12289,14 +11263,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>188</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12328,14 +11296,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>188</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12367,14 +11329,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>188</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12406,14 +11362,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>188</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12445,14 +11395,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>188</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12484,14 +11428,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>188</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12523,14 +11461,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>188</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12562,14 +11494,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>188</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12601,14 +11527,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>188</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12640,14 +11560,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>188</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12679,14 +11593,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>188</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12715,19 +11623,13 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>188</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
-        <v>1.021595744680851</v>
+        <v>1</v>
       </c>
       <c r="M336" t="inlineStr"/>
     </row>
@@ -12754,7 +11656,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12787,7 +11689,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12820,7 +11722,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12853,7 +11755,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12886,7 +11788,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12919,7 +11821,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12952,7 +11854,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12985,7 +11887,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13018,7 +11920,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13051,7 +11953,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13084,7 +11986,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13117,7 +12019,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13150,7 +12052,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13183,7 +12085,7 @@
         <v>-1500239.411699999</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13216,7 +12118,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13249,7 +12151,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13282,7 +12184,7 @@
         <v>-1498582.201499999</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13293,6 +12195,6 @@
       <c r="M353" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest KNC.xlsx
+++ b/BackTest/2019-10-24 BackTest KNC.xlsx
@@ -1441,7 +1441,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2695,10 +2695,14 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>187</v>
+      </c>
+      <c r="J70" t="n">
+        <v>187</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2731,8 +2735,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>187</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2771,19 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>187</v>
+      </c>
+      <c r="J72" t="n">
+        <v>187</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2794,10 +2812,14 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>187</v>
+      </c>
+      <c r="J73" t="n">
+        <v>187</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2827,11 +2849,19 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>187</v>
+      </c>
+      <c r="J74" t="n">
+        <v>187</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,11 +2890,19 @@
         <v>-863311.7433999996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>187</v>
+      </c>
+      <c r="J75" t="n">
+        <v>187</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2893,11 +2931,19 @@
         <v>180546.5560000004</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>187</v>
+      </c>
+      <c r="J76" t="n">
+        <v>187</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2972,19 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>188</v>
+      </c>
+      <c r="J77" t="n">
+        <v>187</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3013,19 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>187</v>
+      </c>
+      <c r="J78" t="n">
+        <v>187</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3054,19 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>187</v>
+      </c>
+      <c r="J79" t="n">
+        <v>187</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3095,19 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>187</v>
+      </c>
+      <c r="J80" t="n">
+        <v>187</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3136,19 @@
         <v>-186253.4439999996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>187</v>
+      </c>
+      <c r="J81" t="n">
+        <v>187</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3177,19 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>187</v>
+      </c>
+      <c r="J82" t="n">
+        <v>187</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3218,19 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>188</v>
+      </c>
+      <c r="J83" t="n">
+        <v>187</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3259,19 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>188</v>
+      </c>
+      <c r="J84" t="n">
+        <v>187</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>187</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>187</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>187</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>187</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3456,19 @@
         <v>211763.5506000004</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>188</v>
+      </c>
+      <c r="J89" t="n">
+        <v>187</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>187</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3539,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>187</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3578,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>187</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3617,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>187</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3656,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>187</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3695,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>187</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3734,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>187</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3773,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>187</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3812,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>187</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3851,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>187</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>187</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>187</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3965,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>187</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4004,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>187</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4043,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>187</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +4082,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>187</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4121,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>187</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +4160,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>187</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4199,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>187</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4238,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>187</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4277,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>187</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4316,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>187</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4355,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>187</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,11 +4394,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>187</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4436,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>187</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4475,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>187</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>187</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4553,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>187</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4589,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>187</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>187</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4667,17 @@
         <v>531647.2054000004</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>187</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>187</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>187</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>187</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>187</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>187</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>187</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>187</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4982,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>187</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>187</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>187</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>187</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>187</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>187</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>187</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>187</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>187</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>187</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>187</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>187</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>187</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>187</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>187</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>187</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>187</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>187</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5684,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>187</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>187</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>187</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>187</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>187</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>187</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>187</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>187</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>187</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>187</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>187</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6113,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>187</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6152,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>187</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6191,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>187</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6230,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>187</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6269,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>187</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6308,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>187</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6347,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>187</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6386,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>187</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6425,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>187</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6464,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>187</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6503,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>187</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6542,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>187</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6581,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>187</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6620,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>187</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6659,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>187</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6698,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>187</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6737,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>187</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6776,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>187</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6812,19 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>188</v>
+      </c>
+      <c r="J175" t="n">
+        <v>187</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6853,19 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>188</v>
+      </c>
+      <c r="J176" t="n">
+        <v>187</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6894,19 @@
         <v>-1074470.8888</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>188</v>
+      </c>
+      <c r="J177" t="n">
+        <v>187</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +6935,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>188</v>
+      </c>
+      <c r="J178" t="n">
+        <v>187</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +6976,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>187</v>
+      </c>
+      <c r="J179" t="n">
+        <v>187</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +7017,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>187</v>
+      </c>
+      <c r="J180" t="n">
+        <v>187</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +7058,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>187</v>
+      </c>
+      <c r="J181" t="n">
+        <v>187</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6391,11 +7099,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>187</v>
+      </c>
+      <c r="J182" t="n">
+        <v>187</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +7140,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>187</v>
+      </c>
+      <c r="J183" t="n">
+        <v>187</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +7181,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>187</v>
+      </c>
+      <c r="J184" t="n">
+        <v>187</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7222,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>187</v>
+      </c>
+      <c r="J185" t="n">
+        <v>187</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7263,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>187</v>
+      </c>
+      <c r="J186" t="n">
+        <v>187</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +7304,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>187</v>
+      </c>
+      <c r="J187" t="n">
+        <v>187</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +7345,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>187</v>
+      </c>
+      <c r="J188" t="n">
+        <v>187</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6622,11 +7386,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>187</v>
+      </c>
+      <c r="J189" t="n">
+        <v>187</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6655,11 +7427,19 @@
         <v>-1412066.8888</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>187</v>
+      </c>
+      <c r="J190" t="n">
+        <v>187</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6688,11 +7468,19 @@
         <v>-1393960.6727</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>187</v>
+      </c>
+      <c r="J191" t="n">
+        <v>187</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +7509,19 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>188</v>
+      </c>
+      <c r="J192" t="n">
+        <v>187</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6754,11 +7550,19 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>186</v>
+      </c>
+      <c r="J193" t="n">
+        <v>187</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7591,19 @@
         <v>-1394915.336099999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>186</v>
+      </c>
+      <c r="J194" t="n">
+        <v>187</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7632,19 @@
         <v>-1423715.571999999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>186</v>
+      </c>
+      <c r="J195" t="n">
+        <v>187</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7676,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>187</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7715,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>187</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>187</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7793,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>187</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7832,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>187</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7871,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>187</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7910,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>187</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>187</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7988,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>187</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +8027,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>187</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +8066,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>187</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +8105,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>187</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +8144,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>187</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +8183,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>187</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +8222,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>187</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +8261,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>187</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +8300,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>187</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8339,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>187</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8378,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>187</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8417,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>187</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8456,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>187</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8495,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>187</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8534,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>187</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8573,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>187</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +8609,17 @@
         <v>-1435111.542499999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>187</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +8648,17 @@
         <v>-1435110.542499999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>187</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8690,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>187</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8726,17 @@
         <v>-1436011.693299999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>187</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8768,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>187</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8804,17 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>187</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8846,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>187</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8882,19 @@
         <v>-1442207.932799999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>188</v>
+      </c>
+      <c r="J227" t="n">
+        <v>187</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8926,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>187</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8962,17 @@
         <v>-1442994.674299999</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>187</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +9001,17 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>187</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +9040,17 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>187</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +9079,17 @@
         <v>-1442824.909399999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>187</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +9118,17 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>187</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +9157,17 @@
         <v>-1444293.365199999</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>187</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +9196,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>187</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +9235,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>187</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8206,11 +9274,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>187</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +9313,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>187</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8272,11 +9352,17 @@
         <v>-1443999.891299999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>187</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8305,11 +9391,17 @@
         <v>-1512237.566499999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>187</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8338,11 +9430,17 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>187</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8371,11 +9469,17 @@
         <v>-1503208.491599999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>187</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8404,11 +9508,17 @@
         <v>-1502682.175899999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>187</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +9547,17 @@
         <v>-1502985.519799999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>187</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8470,15 +9586,15 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>186</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>187</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L245" t="n">
@@ -8509,10 +9625,14 @@
         <v>-1501316.519799999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>187</v>
+      </c>
+      <c r="J246" t="n">
+        <v>187</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,7 +9669,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>187</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8583,12 +9705,12 @@
         <v>-1500316.519799999</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>189</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>187</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8625,7 +9747,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>187</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8662,7 +9786,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>187</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,7 +9825,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>187</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8736,7 +9864,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>187</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8773,7 +9903,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>187</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8810,7 +9942,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>187</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8847,7 +9981,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>187</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8884,7 +10020,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>187</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8921,7 +10059,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>187</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8955,12 +10095,12 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>188</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>187</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,7 +10137,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>187</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,7 +10176,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>187</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9068,12 +10212,12 @@
         <v>-1530707.925899999</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>188</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>187</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9110,7 +10254,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>187</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,12 +10290,12 @@
         <v>-1530855.623899999</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>187</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>187</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,12 +10329,12 @@
         <v>-1525188.553899999</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>186</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>187</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,12 +10368,12 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>187</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>187</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,12 +10407,12 @@
         <v>-1524387.553899999</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>188</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>187</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9303,7 +10449,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>187</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,7 +10488,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>187</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9377,7 +10527,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>187</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9414,7 +10566,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>187</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9451,7 +10605,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>187</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9488,7 +10644,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>187</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9525,7 +10683,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>187</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9562,7 +10722,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>187</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9599,7 +10761,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>187</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9636,7 +10800,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>187</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9673,7 +10839,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>187</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9707,16 +10875,20 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>187</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L278" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
       <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
@@ -9742,11 +10914,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>187</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9775,11 +10953,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>187</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9808,11 +10992,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>187</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9841,11 +11031,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>187</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9874,11 +11070,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>187</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9907,11 +11109,17 @@
         <v>-1534870.820399999</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>187</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9943,8 +11151,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>187</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9976,8 +11190,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>187</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10009,8 +11229,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>187</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10042,8 +11268,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>187</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10075,8 +11307,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>187</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10108,8 +11346,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>187</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10138,11 +11382,17 @@
         <v>-1531218.306299999</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>187</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10171,11 +11421,17 @@
         <v>-1530997.937299999</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>187</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10204,11 +11460,17 @@
         <v>-1516100.838399999</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>187</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +11499,17 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>187</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +11538,17 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>187</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10303,11 +11577,17 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>187</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10336,11 +11616,17 @@
         <v>-1516366.391999999</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>187</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10372,8 +11658,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>187</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10405,8 +11697,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>187</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +11733,17 @@
         <v>-1511338.795199999</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>187</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10471,8 +11775,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>187</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10504,8 +11814,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>187</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10537,8 +11853,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>187</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +11892,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>187</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10603,8 +11931,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>187</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10636,8 +11970,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>187</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10669,8 +12009,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>187</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10702,8 +12048,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>187</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10735,8 +12087,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>187</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10768,8 +12126,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>187</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10801,8 +12165,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>187</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10834,8 +12204,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>187</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10867,8 +12243,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>187</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10900,8 +12282,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>187</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10930,11 +12318,19 @@
         <v>-1504806.827199999</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>189</v>
+      </c>
+      <c r="J315" t="n">
+        <v>187</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10966,8 +12362,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>187</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10996,13 +12398,19 @@
         <v>-1505031.974399999</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>187</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L317" t="n">
-        <v>1</v>
+        <v>1.016390374331551</v>
       </c>
       <c r="M317" t="inlineStr"/>
     </row>
@@ -11128,7 +12536,7 @@
         <v>-1502831.974399999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11458,7 +12866,7 @@
         <v>-1504272.824299999</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11491,7 +12899,7 @@
         <v>-1504271.824299999</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11524,7 +12932,7 @@
         <v>-1505658.623299999</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11557,7 +12965,7 @@
         <v>-1505657.623299999</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11590,7 +12998,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11623,7 +13031,7 @@
         <v>-1505957.623199999</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11656,7 +13064,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11689,7 +13097,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11722,7 +13130,7 @@
         <v>-1505970.375799999</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11788,7 +13196,7 @@
         <v>-1504676.895499999</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11887,7 +13295,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11920,7 +13328,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11953,7 +13361,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11986,7 +13394,7 @@
         <v>-1504675.895499999</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12019,7 +13427,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12052,7 +13460,7 @@
         <v>-1503840.024499999</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12085,7 +13493,7 @@
         <v>-1500239.411699999</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12118,7 +13526,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12151,7 +13559,7 @@
         <v>-1501068.411699999</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12184,7 +13592,7 @@
         <v>-1498582.201499999</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
